--- a/dist/PerSAIDs.xlsx
+++ b/dist/PerSAIDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3639" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3638" uniqueCount="1513">
   <si>
     <t>psm</t>
   </si>
@@ -4465,31 +4465,43 @@
     <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
+  </si>
+  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
@@ -4498,40 +4510,28 @@
     <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
   </si>
   <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
     <t>dcat</t>
   </si>
   <si>
     <t>NCIT</t>
   </si>
   <si>
+    <t>SCDO</t>
+  </si>
+  <si>
     <t>EFO</t>
-  </si>
-  <si>
-    <t>SCDO</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -5789,7 +5789,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K717"/>
+  <dimension ref="A1:K716"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18334,16 +18334,16 @@
         <v>125</v>
       </c>
       <c r="B406" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C406" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D406" t="s">
-        <v>805</v>
-      </c>
-      <c r="E406" t="s">
-        <v>1423</v>
+        <v>806</v>
+      </c>
+      <c r="E406" t="b">
+        <v>0</v>
       </c>
       <c r="F406" t="b">
         <v>0</v>
@@ -18352,10 +18352,13 @@
         <v>0</v>
       </c>
       <c r="H406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="b">
         <v>1</v>
+      </c>
+      <c r="J406" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="407" spans="1:10">
@@ -18363,19 +18366,19 @@
         <v>125</v>
       </c>
       <c r="B407" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C407" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D407" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E407" t="b">
         <v>0</v>
       </c>
       <c r="F407" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G407" t="b">
         <v>0</v>
@@ -18385,9 +18388,6 @@
       </c>
       <c r="I407" t="b">
         <v>1</v>
-      </c>
-      <c r="J407" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="408" spans="1:10">
@@ -18395,25 +18395,25 @@
         <v>125</v>
       </c>
       <c r="B408" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="C408" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D408" t="s">
-        <v>820</v>
+        <v>1162</v>
       </c>
       <c r="E408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F408" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H408" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I408" t="b">
         <v>1</v>
@@ -18424,13 +18424,13 @@
         <v>125</v>
       </c>
       <c r="B409" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C409" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D409" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="E409" t="b">
         <v>0</v>
@@ -18453,13 +18453,13 @@
         <v>125</v>
       </c>
       <c r="B410" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C410" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="D410" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="E410" t="b">
         <v>0</v>
@@ -18482,13 +18482,13 @@
         <v>125</v>
       </c>
       <c r="B411" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C411" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D411" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="E411" t="b">
         <v>0</v>
@@ -18504,6 +18504,9 @@
       </c>
       <c r="I411" t="b">
         <v>1</v>
+      </c>
+      <c r="J411" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="412" spans="1:10">
@@ -18511,13 +18514,13 @@
         <v>125</v>
       </c>
       <c r="B412" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C412" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D412" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="E412" t="b">
         <v>0</v>
@@ -18533,9 +18536,6 @@
       </c>
       <c r="I412" t="b">
         <v>1</v>
-      </c>
-      <c r="J412" t="s">
-        <v>1444</v>
       </c>
     </row>
     <row r="413" spans="1:10">
@@ -18543,13 +18543,13 @@
         <v>125</v>
       </c>
       <c r="B413" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C413" t="s">
         <v>786</v>
       </c>
       <c r="D413" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="E413" t="b">
         <v>0</v>
@@ -18572,13 +18572,13 @@
         <v>125</v>
       </c>
       <c r="B414" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C414" t="s">
         <v>786</v>
       </c>
       <c r="D414" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="E414" t="b">
         <v>0</v>
@@ -18601,13 +18601,13 @@
         <v>125</v>
       </c>
       <c r="B415" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C415" t="s">
         <v>786</v>
       </c>
       <c r="D415" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E415" t="b">
         <v>0</v>
@@ -18630,13 +18630,13 @@
         <v>125</v>
       </c>
       <c r="B416" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C416" t="s">
         <v>786</v>
       </c>
       <c r="D416" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="E416" t="b">
         <v>0</v>
@@ -18659,13 +18659,13 @@
         <v>125</v>
       </c>
       <c r="B417" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C417" t="s">
         <v>786</v>
       </c>
       <c r="D417" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E417" t="b">
         <v>0</v>
@@ -18688,13 +18688,13 @@
         <v>125</v>
       </c>
       <c r="B418" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C418" t="s">
         <v>786</v>
       </c>
       <c r="D418" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="E418" t="b">
         <v>0</v>
@@ -18717,13 +18717,13 @@
         <v>125</v>
       </c>
       <c r="B419" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C419" t="s">
         <v>786</v>
       </c>
       <c r="D419" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="E419" t="b">
         <v>0</v>
@@ -18746,13 +18746,13 @@
         <v>125</v>
       </c>
       <c r="B420" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C420" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D420" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="E420" t="b">
         <v>0</v>
@@ -18775,13 +18775,13 @@
         <v>125</v>
       </c>
       <c r="B421" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C421" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D421" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="E421" t="b">
         <v>0</v>
@@ -18804,13 +18804,13 @@
         <v>125</v>
       </c>
       <c r="B422" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C422" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D422" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="E422" t="b">
         <v>0</v>
@@ -18826,6 +18826,9 @@
       </c>
       <c r="I422" t="b">
         <v>1</v>
+      </c>
+      <c r="J422" t="s">
+        <v>1445</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -18833,13 +18836,13 @@
         <v>125</v>
       </c>
       <c r="B423" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C423" t="s">
         <v>783</v>
       </c>
       <c r="D423" t="s">
-        <v>1176</v>
+        <v>531</v>
       </c>
       <c r="E423" t="b">
         <v>0</v>
@@ -18857,7 +18860,7 @@
         <v>1</v>
       </c>
       <c r="J423" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="424" spans="1:10">
@@ -18865,13 +18868,13 @@
         <v>125</v>
       </c>
       <c r="B424" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C424" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D424" t="s">
-        <v>531</v>
+        <v>1177</v>
       </c>
       <c r="E424" t="b">
         <v>0</v>
@@ -18887,9 +18890,6 @@
       </c>
       <c r="I424" t="b">
         <v>1</v>
-      </c>
-      <c r="J424" t="s">
-        <v>1446</v>
       </c>
     </row>
     <row r="425" spans="1:10">
@@ -18897,13 +18897,13 @@
         <v>125</v>
       </c>
       <c r="B425" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C425" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D425" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="E425" t="b">
         <v>0</v>
@@ -18923,28 +18923,28 @@
     </row>
     <row r="426" spans="1:10">
       <c r="A426" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B426" t="s">
-        <v>533</v>
+        <v>147</v>
       </c>
       <c r="C426" t="s">
         <v>782</v>
       </c>
       <c r="D426" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E426" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E426" t="s">
+        <v>1423</v>
       </c>
       <c r="F426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G426" t="b">
         <v>0</v>
       </c>
       <c r="H426" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I426" t="b">
         <v>1</v>
@@ -18955,16 +18955,16 @@
         <v>126</v>
       </c>
       <c r="B427" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C427" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D427" t="s">
-        <v>805</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1423</v>
+        <v>806</v>
+      </c>
+      <c r="E427" t="b">
+        <v>0</v>
       </c>
       <c r="F427" t="b">
         <v>0</v>
@@ -18973,10 +18973,13 @@
         <v>0</v>
       </c>
       <c r="H427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="b">
         <v>1</v>
+      </c>
+      <c r="J427" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="428" spans="1:10">
@@ -18984,19 +18987,19 @@
         <v>126</v>
       </c>
       <c r="B428" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C428" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D428" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E428" t="b">
         <v>0</v>
       </c>
       <c r="F428" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G428" t="b">
         <v>0</v>
@@ -19006,9 +19009,6 @@
       </c>
       <c r="I428" t="b">
         <v>1</v>
-      </c>
-      <c r="J428" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="429" spans="1:10">
@@ -19016,19 +19016,19 @@
         <v>126</v>
       </c>
       <c r="B429" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="C429" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D429" t="s">
-        <v>820</v>
+        <v>1162</v>
       </c>
       <c r="E429" t="b">
         <v>0</v>
       </c>
       <c r="F429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G429" t="b">
         <v>0</v>
@@ -19038,6 +19038,9 @@
       </c>
       <c r="I429" t="b">
         <v>1</v>
+      </c>
+      <c r="J429" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="430" spans="1:10">
@@ -19045,13 +19048,13 @@
         <v>126</v>
       </c>
       <c r="B430" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C430" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D430" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="E430" t="b">
         <v>0</v>
@@ -19074,13 +19077,13 @@
         <v>126</v>
       </c>
       <c r="B431" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="C431" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D431" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E431" t="b">
         <v>0</v>
@@ -19103,13 +19106,13 @@
         <v>126</v>
       </c>
       <c r="B432" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="C432" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="D432" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="E432" t="b">
         <v>0</v>
@@ -19132,13 +19135,13 @@
         <v>126</v>
       </c>
       <c r="B433" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C433" t="s">
         <v>784</v>
       </c>
       <c r="D433" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="E433" t="b">
         <v>0</v>
@@ -19161,13 +19164,13 @@
         <v>126</v>
       </c>
       <c r="B434" t="s">
-        <v>494</v>
+        <v>508</v>
       </c>
       <c r="C434" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D434" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="E434" t="b">
         <v>0</v>
@@ -19190,13 +19193,13 @@
         <v>126</v>
       </c>
       <c r="B435" t="s">
-        <v>508</v>
+        <v>535</v>
       </c>
       <c r="C435" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D435" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="E435" t="b">
         <v>0</v>
@@ -19219,13 +19222,13 @@
         <v>126</v>
       </c>
       <c r="B436" t="s">
-        <v>535</v>
+        <v>510</v>
       </c>
       <c r="C436" t="s">
         <v>782</v>
       </c>
       <c r="D436" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="E436" t="b">
         <v>0</v>
@@ -19248,13 +19251,13 @@
         <v>126</v>
       </c>
       <c r="B437" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="C437" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D437" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="E437" t="b">
         <v>0</v>
@@ -19277,13 +19280,13 @@
         <v>126</v>
       </c>
       <c r="B438" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C438" t="s">
         <v>786</v>
       </c>
       <c r="D438" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="E438" t="b">
         <v>0</v>
@@ -19306,13 +19309,13 @@
         <v>126</v>
       </c>
       <c r="B439" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C439" t="s">
         <v>786</v>
       </c>
       <c r="D439" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="E439" t="b">
         <v>0</v>
@@ -19335,13 +19338,13 @@
         <v>126</v>
       </c>
       <c r="B440" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C440" t="s">
         <v>786</v>
       </c>
       <c r="D440" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="E440" t="b">
         <v>0</v>
@@ -19364,13 +19367,13 @@
         <v>126</v>
       </c>
       <c r="B441" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C441" t="s">
         <v>786</v>
       </c>
       <c r="D441" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="E441" t="b">
         <v>0</v>
@@ -19393,13 +19396,13 @@
         <v>126</v>
       </c>
       <c r="B442" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C442" t="s">
         <v>786</v>
       </c>
       <c r="D442" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="E442" t="b">
         <v>0</v>
@@ -19422,13 +19425,13 @@
         <v>126</v>
       </c>
       <c r="B443" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C443" t="s">
         <v>786</v>
       </c>
       <c r="D443" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E443" t="b">
         <v>0</v>
@@ -19451,13 +19454,13 @@
         <v>126</v>
       </c>
       <c r="B444" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C444" t="s">
         <v>786</v>
       </c>
       <c r="D444" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E444" t="b">
         <v>0</v>
@@ -19480,13 +19483,13 @@
         <v>126</v>
       </c>
       <c r="B445" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C445" t="s">
         <v>786</v>
       </c>
       <c r="D445" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E445" t="b">
         <v>0</v>
@@ -19509,13 +19512,13 @@
         <v>126</v>
       </c>
       <c r="B446" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C446" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D446" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="E446" t="b">
         <v>0</v>
@@ -19538,13 +19541,13 @@
         <v>126</v>
       </c>
       <c r="B447" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="C447" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D447" t="s">
-        <v>1195</v>
+        <v>1150</v>
       </c>
       <c r="E447" t="b">
         <v>0</v>
@@ -19560,6 +19563,9 @@
       </c>
       <c r="I447" t="b">
         <v>1</v>
+      </c>
+      <c r="J447" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="448" spans="1:10">
@@ -19567,13 +19573,13 @@
         <v>126</v>
       </c>
       <c r="B448" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C448" t="s">
         <v>783</v>
       </c>
       <c r="D448" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="E448" t="b">
         <v>0</v>
@@ -19596,34 +19602,31 @@
     </row>
     <row r="449" spans="1:10">
       <c r="A449" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B449" t="s">
-        <v>505</v>
+        <v>147</v>
       </c>
       <c r="C449" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D449" t="s">
-        <v>1151</v>
-      </c>
-      <c r="E449" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E449" t="s">
+        <v>1423</v>
       </c>
       <c r="F449" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G449" t="b">
         <v>0</v>
       </c>
       <c r="H449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I449" t="b">
         <v>1</v>
-      </c>
-      <c r="J449" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="450" spans="1:10">
@@ -19631,16 +19634,16 @@
         <v>127</v>
       </c>
       <c r="B450" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C450" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D450" t="s">
-        <v>805</v>
-      </c>
-      <c r="E450" t="s">
-        <v>1423</v>
+        <v>806</v>
+      </c>
+      <c r="E450" t="b">
+        <v>0</v>
       </c>
       <c r="F450" t="b">
         <v>0</v>
@@ -19649,10 +19652,13 @@
         <v>0</v>
       </c>
       <c r="H450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I450" t="b">
         <v>1</v>
+      </c>
+      <c r="J450" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="451" spans="1:10">
@@ -19660,19 +19666,19 @@
         <v>127</v>
       </c>
       <c r="B451" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C451" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D451" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E451" t="b">
         <v>0</v>
       </c>
       <c r="F451" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G451" t="b">
         <v>0</v>
@@ -19682,9 +19688,6 @@
       </c>
       <c r="I451" t="b">
         <v>1</v>
-      </c>
-      <c r="J451" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="452" spans="1:10">
@@ -19692,19 +19695,19 @@
         <v>127</v>
       </c>
       <c r="B452" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="C452" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D452" t="s">
-        <v>820</v>
+        <v>1162</v>
       </c>
       <c r="E452" t="b">
         <v>0</v>
       </c>
       <c r="F452" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G452" t="b">
         <v>0</v>
@@ -19714,6 +19717,9 @@
       </c>
       <c r="I452" t="b">
         <v>1</v>
+      </c>
+      <c r="J452" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="453" spans="1:10">
@@ -19721,13 +19727,13 @@
         <v>127</v>
       </c>
       <c r="B453" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C453" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D453" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
@@ -19747,28 +19753,28 @@
     </row>
     <row r="454" spans="1:10">
       <c r="A454" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B454" t="s">
-        <v>491</v>
+        <v>147</v>
       </c>
       <c r="C454" t="s">
         <v>782</v>
       </c>
       <c r="D454" t="s">
-        <v>1179</v>
-      </c>
-      <c r="E454" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E454" t="s">
+        <v>1423</v>
       </c>
       <c r="F454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G454" t="b">
         <v>0</v>
       </c>
       <c r="H454" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I454" t="b">
         <v>1</v>
@@ -19779,16 +19785,16 @@
         <v>128</v>
       </c>
       <c r="B455" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C455" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D455" t="s">
-        <v>805</v>
-      </c>
-      <c r="E455" t="s">
-        <v>1423</v>
+        <v>806</v>
+      </c>
+      <c r="E455" t="b">
+        <v>0</v>
       </c>
       <c r="F455" t="b">
         <v>0</v>
@@ -19797,10 +19803,13 @@
         <v>0</v>
       </c>
       <c r="H455" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I455" t="b">
         <v>1</v>
+      </c>
+      <c r="J455" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="456" spans="1:10">
@@ -19808,19 +19817,19 @@
         <v>128</v>
       </c>
       <c r="B456" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C456" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D456" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E456" t="b">
         <v>0</v>
       </c>
       <c r="F456" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G456" t="b">
         <v>0</v>
@@ -19830,9 +19839,6 @@
       </c>
       <c r="I456" t="b">
         <v>1</v>
-      </c>
-      <c r="J456" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="457" spans="1:10">
@@ -19840,13 +19846,13 @@
         <v>128</v>
       </c>
       <c r="B457" t="s">
-        <v>161</v>
+        <v>536</v>
       </c>
       <c r="C457" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D457" t="s">
-        <v>820</v>
+        <v>1196</v>
       </c>
       <c r="E457" t="b">
         <v>0</v>
@@ -19869,19 +19875,19 @@
         <v>128</v>
       </c>
       <c r="B458" t="s">
-        <v>536</v>
+        <v>516</v>
       </c>
       <c r="C458" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D458" t="s">
-        <v>1196</v>
+        <v>1162</v>
       </c>
       <c r="E458" t="b">
         <v>0</v>
       </c>
       <c r="F458" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G458" t="b">
         <v>0</v>
@@ -19891,6 +19897,9 @@
       </c>
       <c r="I458" t="b">
         <v>1</v>
+      </c>
+      <c r="J458" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="459" spans="1:10">
@@ -19898,13 +19907,13 @@
         <v>128</v>
       </c>
       <c r="B459" t="s">
-        <v>516</v>
+        <v>491</v>
       </c>
       <c r="C459" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D459" t="s">
-        <v>1162</v>
+        <v>1179</v>
       </c>
       <c r="E459" t="b">
         <v>0</v>
@@ -19927,13 +19936,13 @@
         <v>128</v>
       </c>
       <c r="B460" t="s">
-        <v>491</v>
+        <v>537</v>
       </c>
       <c r="C460" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D460" t="s">
-        <v>1179</v>
+        <v>1197</v>
       </c>
       <c r="E460" t="b">
         <v>0</v>
@@ -19949,6 +19958,9 @@
       </c>
       <c r="I460" t="b">
         <v>1</v>
+      </c>
+      <c r="J460" t="s">
+        <v>1447</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -19956,13 +19968,13 @@
         <v>128</v>
       </c>
       <c r="B461" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C461" t="s">
         <v>783</v>
       </c>
       <c r="D461" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E461" t="b">
         <v>0</v>
@@ -19980,7 +19992,7 @@
         <v>1</v>
       </c>
       <c r="J461" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -19988,13 +20000,13 @@
         <v>128</v>
       </c>
       <c r="B462" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C462" t="s">
         <v>783</v>
       </c>
       <c r="D462" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E462" t="b">
         <v>0</v>
@@ -20012,7 +20024,7 @@
         <v>1</v>
       </c>
       <c r="J462" t="s">
-        <v>1448</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="463" spans="1:10">
@@ -20020,13 +20032,13 @@
         <v>128</v>
       </c>
       <c r="B463" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C463" t="s">
         <v>783</v>
       </c>
       <c r="D463" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E463" t="b">
         <v>0</v>
@@ -20052,13 +20064,13 @@
         <v>128</v>
       </c>
       <c r="B464" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C464" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D464" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="E464" t="b">
         <v>0</v>
@@ -20074,9 +20086,6 @@
       </c>
       <c r="I464" t="b">
         <v>1</v>
-      </c>
-      <c r="J464" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="465" spans="1:10">
@@ -20084,13 +20093,13 @@
         <v>128</v>
       </c>
       <c r="B465" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C465" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D465" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="E465" t="b">
         <v>0</v>
@@ -20113,13 +20122,13 @@
         <v>128</v>
       </c>
       <c r="B466" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C466" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D466" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="E466" t="b">
         <v>0</v>
@@ -20142,13 +20151,13 @@
         <v>128</v>
       </c>
       <c r="B467" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C467" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D467" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="E467" t="b">
         <v>0</v>
@@ -20168,28 +20177,28 @@
     </row>
     <row r="468" spans="1:10">
       <c r="A468" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B468" t="s">
-        <v>544</v>
+        <v>147</v>
       </c>
       <c r="C468" t="s">
         <v>782</v>
       </c>
       <c r="D468" t="s">
-        <v>1204</v>
-      </c>
-      <c r="E468" t="b">
-        <v>0</v>
+        <v>805</v>
+      </c>
+      <c r="E468" t="s">
+        <v>1423</v>
       </c>
       <c r="F468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G468" t="b">
         <v>0</v>
       </c>
       <c r="H468" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I468" t="b">
         <v>1</v>
@@ -20200,16 +20209,16 @@
         <v>129</v>
       </c>
       <c r="B469" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C469" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D469" t="s">
-        <v>805</v>
-      </c>
-      <c r="E469" t="s">
-        <v>1423</v>
+        <v>806</v>
+      </c>
+      <c r="E469" t="b">
+        <v>0</v>
       </c>
       <c r="F469" t="b">
         <v>0</v>
@@ -20218,10 +20227,13 @@
         <v>0</v>
       </c>
       <c r="H469" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I469" t="b">
         <v>1</v>
+      </c>
+      <c r="J469" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="470" spans="1:10">
@@ -20229,19 +20241,19 @@
         <v>129</v>
       </c>
       <c r="B470" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C470" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D470" t="s">
-        <v>806</v>
+        <v>820</v>
       </c>
       <c r="E470" t="b">
         <v>0</v>
       </c>
       <c r="F470" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G470" t="b">
         <v>0</v>
@@ -20251,9 +20263,6 @@
       </c>
       <c r="I470" t="b">
         <v>1</v>
-      </c>
-      <c r="J470" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="471" spans="1:10">
@@ -20261,19 +20270,19 @@
         <v>129</v>
       </c>
       <c r="B471" t="s">
-        <v>161</v>
+        <v>516</v>
       </c>
       <c r="C471" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D471" t="s">
-        <v>820</v>
+        <v>1162</v>
       </c>
       <c r="E471" t="b">
         <v>0</v>
       </c>
       <c r="F471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G471" t="b">
         <v>0</v>
@@ -20283,6 +20292,9 @@
       </c>
       <c r="I471" t="b">
         <v>1</v>
+      </c>
+      <c r="J471" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="472" spans="1:10">
@@ -20290,13 +20302,13 @@
         <v>129</v>
       </c>
       <c r="B472" t="s">
-        <v>516</v>
+        <v>545</v>
       </c>
       <c r="C472" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D472" t="s">
-        <v>1162</v>
+        <v>1205</v>
       </c>
       <c r="E472" t="b">
         <v>0</v>
@@ -20319,13 +20331,13 @@
         <v>129</v>
       </c>
       <c r="B473" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C473" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D473" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="E473" t="b">
         <v>0</v>
@@ -20348,13 +20360,13 @@
         <v>129</v>
       </c>
       <c r="B474" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C474" t="s">
         <v>782</v>
       </c>
       <c r="D474" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="E474" t="b">
         <v>0</v>
@@ -20377,13 +20389,13 @@
         <v>129</v>
       </c>
       <c r="B475" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C475" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D475" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="E475" t="b">
         <v>0</v>
@@ -20399,6 +20411,9 @@
       </c>
       <c r="I475" t="b">
         <v>1</v>
+      </c>
+      <c r="J475" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="476" spans="1:10">
@@ -20406,13 +20421,13 @@
         <v>129</v>
       </c>
       <c r="B476" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C476" t="s">
         <v>783</v>
       </c>
       <c r="D476" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="E476" t="b">
         <v>0</v>
@@ -20430,7 +20445,7 @@
         <v>1</v>
       </c>
       <c r="J476" t="s">
-        <v>1426</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="477" spans="1:10">
@@ -20438,13 +20453,13 @@
         <v>129</v>
       </c>
       <c r="B477" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C477" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D477" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="E477" t="b">
         <v>0</v>
@@ -20460,9 +20475,6 @@
       </c>
       <c r="I477" t="b">
         <v>1</v>
-      </c>
-      <c r="J477" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="478" spans="1:10">
@@ -20470,13 +20482,13 @@
         <v>129</v>
       </c>
       <c r="B478" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C478" t="s">
         <v>782</v>
       </c>
       <c r="D478" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="E478" t="b">
         <v>0</v>
@@ -20499,13 +20511,13 @@
         <v>129</v>
       </c>
       <c r="B479" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C479" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D479" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="E479" t="b">
         <v>0</v>
@@ -20521,6 +20533,9 @@
       </c>
       <c r="I479" t="b">
         <v>1</v>
+      </c>
+      <c r="J479" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="480" spans="1:10">
@@ -20528,13 +20543,13 @@
         <v>129</v>
       </c>
       <c r="B480" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C480" t="s">
         <v>783</v>
       </c>
       <c r="D480" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="E480" t="b">
         <v>0</v>
@@ -20552,7 +20567,7 @@
         <v>1</v>
       </c>
       <c r="J480" t="s">
-        <v>1426</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="481" spans="1:10">
@@ -20560,13 +20575,13 @@
         <v>129</v>
       </c>
       <c r="B481" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C481" t="s">
         <v>783</v>
       </c>
       <c r="D481" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="E481" t="b">
         <v>0</v>
@@ -20584,7 +20599,7 @@
         <v>1</v>
       </c>
       <c r="J481" t="s">
-        <v>1450</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="482" spans="1:10">
@@ -20592,13 +20607,13 @@
         <v>129</v>
       </c>
       <c r="B482" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C482" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D482" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="E482" t="b">
         <v>0</v>
@@ -20614,9 +20629,6 @@
       </c>
       <c r="I482" t="b">
         <v>1</v>
-      </c>
-      <c r="J482" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="483" spans="1:10">
@@ -20624,13 +20636,13 @@
         <v>129</v>
       </c>
       <c r="B483" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C483" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D483" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="E483" t="b">
         <v>0</v>
@@ -20653,13 +20665,13 @@
         <v>129</v>
       </c>
       <c r="B484" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C484" t="s">
         <v>785</v>
       </c>
       <c r="D484" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="E484" t="b">
         <v>0</v>
@@ -20682,13 +20694,13 @@
         <v>129</v>
       </c>
       <c r="B485" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C485" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D485" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="E485" t="b">
         <v>0</v>
@@ -20711,13 +20723,13 @@
         <v>129</v>
       </c>
       <c r="B486" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C486" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D486" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="E486" t="b">
         <v>0</v>
@@ -20733,6 +20745,9 @@
       </c>
       <c r="I486" t="b">
         <v>1</v>
+      </c>
+      <c r="J486" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="487" spans="1:10">
@@ -20740,13 +20755,13 @@
         <v>129</v>
       </c>
       <c r="B487" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C487" t="s">
         <v>783</v>
       </c>
       <c r="D487" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E487" t="b">
         <v>0</v>
@@ -20772,13 +20787,13 @@
         <v>129</v>
       </c>
       <c r="B488" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C488" t="s">
         <v>783</v>
       </c>
       <c r="D488" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E488" t="b">
         <v>0</v>
@@ -20804,13 +20819,13 @@
         <v>129</v>
       </c>
       <c r="B489" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C489" t="s">
         <v>783</v>
       </c>
       <c r="D489" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E489" t="b">
         <v>0</v>
@@ -20836,13 +20851,13 @@
         <v>129</v>
       </c>
       <c r="B490" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C490" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D490" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="E490" t="b">
         <v>0</v>
@@ -20858,9 +20873,6 @@
       </c>
       <c r="I490" t="b">
         <v>1</v>
-      </c>
-      <c r="J490" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="491" spans="1:10">
@@ -20868,13 +20880,13 @@
         <v>129</v>
       </c>
       <c r="B491" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C491" t="s">
         <v>786</v>
       </c>
       <c r="D491" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="E491" t="b">
         <v>0</v>
@@ -20897,13 +20909,13 @@
         <v>129</v>
       </c>
       <c r="B492" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C492" t="s">
         <v>786</v>
       </c>
       <c r="D492" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="E492" t="b">
         <v>0</v>
@@ -20926,13 +20938,13 @@
         <v>129</v>
       </c>
       <c r="B493" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C493" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D493" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="E493" t="b">
         <v>0</v>
@@ -20955,13 +20967,13 @@
         <v>129</v>
       </c>
       <c r="B494" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C494" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D494" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E494" t="b">
         <v>0</v>
@@ -20977,6 +20989,9 @@
       </c>
       <c r="I494" t="b">
         <v>1</v>
+      </c>
+      <c r="J494" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="495" spans="1:10">
@@ -20984,13 +20999,13 @@
         <v>129</v>
       </c>
       <c r="B495" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C495" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D495" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="E495" t="b">
         <v>0</v>
@@ -21006,9 +21021,6 @@
       </c>
       <c r="I495" t="b">
         <v>1</v>
-      </c>
-      <c r="J495" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="496" spans="1:10">
@@ -21016,13 +21028,13 @@
         <v>129</v>
       </c>
       <c r="B496" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C496" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D496" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="E496" t="b">
         <v>0</v>
@@ -21038,6 +21050,9 @@
       </c>
       <c r="I496" t="b">
         <v>1</v>
+      </c>
+      <c r="J496" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="497" spans="1:10">
@@ -21045,13 +21060,13 @@
         <v>129</v>
       </c>
       <c r="B497" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C497" t="s">
         <v>783</v>
       </c>
       <c r="D497" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="E497" t="b">
         <v>0</v>
@@ -21077,13 +21092,13 @@
         <v>129</v>
       </c>
       <c r="B498" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C498" t="s">
         <v>783</v>
       </c>
       <c r="D498" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="E498" t="b">
         <v>0</v>
@@ -21109,13 +21124,13 @@
         <v>129</v>
       </c>
       <c r="B499" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C499" t="s">
         <v>783</v>
       </c>
       <c r="D499" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="E499" t="b">
         <v>0</v>
@@ -21141,13 +21156,13 @@
         <v>129</v>
       </c>
       <c r="B500" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C500" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D500" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="E500" t="b">
         <v>0</v>
@@ -21163,9 +21178,6 @@
       </c>
       <c r="I500" t="b">
         <v>1</v>
-      </c>
-      <c r="J500" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="501" spans="1:10">
@@ -21173,13 +21185,13 @@
         <v>129</v>
       </c>
       <c r="B501" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C501" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D501" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="E501" t="b">
         <v>0</v>
@@ -21202,13 +21214,13 @@
         <v>129</v>
       </c>
       <c r="B502" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C502" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D502" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="E502" t="b">
         <v>0</v>
@@ -21224,6 +21236,9 @@
       </c>
       <c r="I502" t="b">
         <v>1</v>
+      </c>
+      <c r="J502" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="503" spans="1:10">
@@ -21231,13 +21246,13 @@
         <v>129</v>
       </c>
       <c r="B503" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C503" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D503" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="E503" t="b">
         <v>0</v>
@@ -21253,9 +21268,6 @@
       </c>
       <c r="I503" t="b">
         <v>1</v>
-      </c>
-      <c r="J503" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="504" spans="1:10">
@@ -21263,13 +21275,13 @@
         <v>129</v>
       </c>
       <c r="B504" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C504" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D504" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="E504" t="b">
         <v>0</v>
@@ -21285,6 +21297,9 @@
       </c>
       <c r="I504" t="b">
         <v>1</v>
+      </c>
+      <c r="J504" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="505" spans="1:10">
@@ -21292,13 +21307,13 @@
         <v>129</v>
       </c>
       <c r="B505" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C505" t="s">
         <v>783</v>
       </c>
       <c r="D505" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="E505" t="b">
         <v>0</v>
@@ -21324,13 +21339,13 @@
         <v>129</v>
       </c>
       <c r="B506" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C506" t="s">
         <v>783</v>
       </c>
       <c r="D506" t="s">
-        <v>1238</v>
+        <v>865</v>
       </c>
       <c r="E506" t="b">
         <v>0</v>
@@ -21356,13 +21371,13 @@
         <v>129</v>
       </c>
       <c r="B507" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C507" t="s">
         <v>783</v>
       </c>
       <c r="D507" t="s">
-        <v>865</v>
+        <v>580</v>
       </c>
       <c r="E507" t="b">
         <v>0</v>
@@ -21388,13 +21403,13 @@
         <v>129</v>
       </c>
       <c r="B508" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C508" t="s">
         <v>783</v>
       </c>
       <c r="D508" t="s">
-        <v>580</v>
+        <v>1239</v>
       </c>
       <c r="E508" t="b">
         <v>0</v>
@@ -21420,13 +21435,13 @@
         <v>129</v>
       </c>
       <c r="B509" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C509" t="s">
         <v>783</v>
       </c>
       <c r="D509" t="s">
-        <v>1239</v>
+        <v>582</v>
       </c>
       <c r="E509" t="b">
         <v>0</v>
@@ -21452,13 +21467,13 @@
         <v>129</v>
       </c>
       <c r="B510" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C510" t="s">
         <v>783</v>
       </c>
       <c r="D510" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E510" t="b">
         <v>0</v>
@@ -21484,13 +21499,13 @@
         <v>129</v>
       </c>
       <c r="B511" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C511" t="s">
         <v>783</v>
       </c>
       <c r="D511" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E511" t="b">
         <v>0</v>
@@ -21516,13 +21531,13 @@
         <v>129</v>
       </c>
       <c r="B512" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C512" t="s">
         <v>783</v>
       </c>
       <c r="D512" t="s">
-        <v>584</v>
+        <v>927</v>
       </c>
       <c r="E512" t="b">
         <v>0</v>
@@ -21548,13 +21563,13 @@
         <v>129</v>
       </c>
       <c r="B513" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C513" t="s">
         <v>783</v>
       </c>
       <c r="D513" t="s">
-        <v>927</v>
+        <v>878</v>
       </c>
       <c r="E513" t="b">
         <v>0</v>
@@ -21580,13 +21595,13 @@
         <v>129</v>
       </c>
       <c r="B514" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C514" t="s">
         <v>783</v>
       </c>
       <c r="D514" t="s">
-        <v>878</v>
+        <v>1240</v>
       </c>
       <c r="E514" t="b">
         <v>0</v>
@@ -21612,13 +21627,13 @@
         <v>129</v>
       </c>
       <c r="B515" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C515" t="s">
         <v>783</v>
       </c>
       <c r="D515" t="s">
-        <v>1240</v>
+        <v>588</v>
       </c>
       <c r="E515" t="b">
         <v>0</v>
@@ -21644,13 +21659,13 @@
         <v>129</v>
       </c>
       <c r="B516" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C516" t="s">
         <v>783</v>
       </c>
       <c r="D516" t="s">
-        <v>588</v>
+        <v>1241</v>
       </c>
       <c r="E516" t="b">
         <v>0</v>
@@ -21676,13 +21691,13 @@
         <v>129</v>
       </c>
       <c r="B517" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C517" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D517" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="E517" t="b">
         <v>0</v>
@@ -21698,9 +21713,6 @@
       </c>
       <c r="I517" t="b">
         <v>1</v>
-      </c>
-      <c r="J517" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="518" spans="1:10">
@@ -21708,13 +21720,13 @@
         <v>129</v>
       </c>
       <c r="B518" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C518" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D518" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="E518" t="b">
         <v>0</v>
@@ -21730,6 +21742,9 @@
       </c>
       <c r="I518" t="b">
         <v>1</v>
+      </c>
+      <c r="J518" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="519" spans="1:10">
@@ -21737,13 +21752,13 @@
         <v>129</v>
       </c>
       <c r="B519" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C519" t="s">
         <v>783</v>
       </c>
       <c r="D519" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="E519" t="b">
         <v>0</v>
@@ -21769,13 +21784,13 @@
         <v>129</v>
       </c>
       <c r="B520" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C520" t="s">
         <v>783</v>
       </c>
       <c r="D520" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="E520" t="b">
         <v>0</v>
@@ -21801,13 +21816,13 @@
         <v>129</v>
       </c>
       <c r="B521" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C521" t="s">
         <v>783</v>
       </c>
       <c r="D521" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="E521" t="b">
         <v>0</v>
@@ -21833,13 +21848,13 @@
         <v>129</v>
       </c>
       <c r="B522" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C522" t="s">
         <v>783</v>
       </c>
       <c r="D522" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="E522" t="b">
         <v>0</v>
@@ -21865,13 +21880,13 @@
         <v>129</v>
       </c>
       <c r="B523" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C523" t="s">
         <v>783</v>
       </c>
       <c r="D523" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="E523" t="b">
         <v>0</v>
@@ -21897,13 +21912,13 @@
         <v>129</v>
       </c>
       <c r="B524" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C524" t="s">
         <v>783</v>
       </c>
       <c r="D524" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="E524" t="b">
         <v>0</v>
@@ -21929,13 +21944,13 @@
         <v>129</v>
       </c>
       <c r="B525" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C525" t="s">
         <v>783</v>
       </c>
       <c r="D525" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="E525" t="b">
         <v>0</v>
@@ -21961,13 +21976,13 @@
         <v>129</v>
       </c>
       <c r="B526" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C526" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D526" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="E526" t="b">
         <v>0</v>
@@ -21983,9 +21998,6 @@
       </c>
       <c r="I526" t="b">
         <v>1</v>
-      </c>
-      <c r="J526" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -21993,13 +22005,13 @@
         <v>129</v>
       </c>
       <c r="B527" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C527" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D527" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="E527" t="b">
         <v>0</v>
@@ -22022,13 +22034,13 @@
         <v>129</v>
       </c>
       <c r="B528" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C528" t="s">
         <v>782</v>
       </c>
       <c r="D528" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="E528" t="b">
         <v>0</v>
@@ -22051,13 +22063,13 @@
         <v>129</v>
       </c>
       <c r="B529" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C529" t="s">
         <v>782</v>
       </c>
       <c r="D529" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="E529" t="b">
         <v>0</v>
@@ -22080,13 +22092,13 @@
         <v>129</v>
       </c>
       <c r="B530" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C530" t="s">
         <v>782</v>
       </c>
       <c r="D530" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E530" t="b">
         <v>0</v>
@@ -22109,13 +22121,13 @@
         <v>129</v>
       </c>
       <c r="B531" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C531" t="s">
         <v>782</v>
       </c>
       <c r="D531" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E531" t="b">
         <v>0</v>
@@ -22138,13 +22150,13 @@
         <v>129</v>
       </c>
       <c r="B532" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C532" t="s">
         <v>782</v>
       </c>
       <c r="D532" t="s">
-        <v>1256</v>
+        <v>133</v>
       </c>
       <c r="E532" t="b">
         <v>0</v>
@@ -22167,13 +22179,13 @@
         <v>129</v>
       </c>
       <c r="B533" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C533" t="s">
         <v>782</v>
       </c>
       <c r="D533" t="s">
-        <v>133</v>
+        <v>1257</v>
       </c>
       <c r="E533" t="b">
         <v>0</v>
@@ -22196,13 +22208,13 @@
         <v>129</v>
       </c>
       <c r="B534" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C534" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D534" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="E534" t="b">
         <v>0</v>
@@ -22225,13 +22237,13 @@
         <v>129</v>
       </c>
       <c r="B535" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C535" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D535" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="E535" t="b">
         <v>0</v>
@@ -22254,13 +22266,13 @@
         <v>129</v>
       </c>
       <c r="B536" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C536" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D536" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="E536" t="b">
         <v>0</v>
@@ -22283,13 +22295,13 @@
         <v>129</v>
       </c>
       <c r="B537" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C537" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D537" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="E537" t="b">
         <v>0</v>
@@ -22312,13 +22324,13 @@
         <v>129</v>
       </c>
       <c r="B538" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C538" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D538" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="E538" t="b">
         <v>0</v>
@@ -22341,13 +22353,13 @@
         <v>129</v>
       </c>
       <c r="B539" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C539" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D539" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="E539" t="b">
         <v>0</v>
@@ -22370,13 +22382,13 @@
         <v>129</v>
       </c>
       <c r="B540" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C540" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D540" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="E540" t="b">
         <v>0</v>
@@ -22399,13 +22411,13 @@
         <v>129</v>
       </c>
       <c r="B541" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C541" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D541" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="E541" t="b">
         <v>0</v>
@@ -22428,13 +22440,13 @@
         <v>129</v>
       </c>
       <c r="B542" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C542" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D542" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="E542" t="b">
         <v>0</v>
@@ -22450,6 +22462,9 @@
       </c>
       <c r="I542" t="b">
         <v>1</v>
+      </c>
+      <c r="J542" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="543" spans="1:10">
@@ -22457,13 +22472,13 @@
         <v>129</v>
       </c>
       <c r="B543" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C543" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D543" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="E543" t="b">
         <v>0</v>
@@ -22479,9 +22494,6 @@
       </c>
       <c r="I543" t="b">
         <v>1</v>
-      </c>
-      <c r="J543" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="544" spans="1:10">
@@ -22489,13 +22501,13 @@
         <v>129</v>
       </c>
       <c r="B544" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C544" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D544" t="s">
-        <v>1267</v>
+        <v>964</v>
       </c>
       <c r="E544" t="b">
         <v>0</v>
@@ -22518,13 +22530,13 @@
         <v>129</v>
       </c>
       <c r="B545" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C545" t="s">
         <v>786</v>
       </c>
       <c r="D545" t="s">
-        <v>964</v>
+        <v>1268</v>
       </c>
       <c r="E545" t="b">
         <v>0</v>
@@ -22547,10 +22559,10 @@
         <v>129</v>
       </c>
       <c r="B546" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C546" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D546" t="s">
         <v>1268</v>
@@ -22576,13 +22588,13 @@
         <v>129</v>
       </c>
       <c r="B547" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C547" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D547" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E547" t="b">
         <v>0</v>
@@ -22605,13 +22617,13 @@
         <v>129</v>
       </c>
       <c r="B548" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C548" t="s">
         <v>786</v>
       </c>
       <c r="D548" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="E548" t="b">
         <v>0</v>
@@ -22634,13 +22646,13 @@
         <v>129</v>
       </c>
       <c r="B549" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C549" t="s">
         <v>786</v>
       </c>
       <c r="D549" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="E549" t="b">
         <v>0</v>
@@ -22663,13 +22675,13 @@
         <v>129</v>
       </c>
       <c r="B550" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C550" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D550" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="E550" t="b">
         <v>0</v>
@@ -22685,6 +22697,9 @@
       </c>
       <c r="I550" t="b">
         <v>1</v>
+      </c>
+      <c r="J550" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="551" spans="1:10">
@@ -22692,13 +22707,13 @@
         <v>129</v>
       </c>
       <c r="B551" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C551" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D551" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="E551" t="b">
         <v>0</v>
@@ -22714,9 +22729,6 @@
       </c>
       <c r="I551" t="b">
         <v>1</v>
-      </c>
-      <c r="J551" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="552" spans="1:10">
@@ -22724,13 +22736,13 @@
         <v>129</v>
       </c>
       <c r="B552" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C552" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="D552" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="E552" t="b">
         <v>0</v>
@@ -22753,13 +22765,13 @@
         <v>129</v>
       </c>
       <c r="B553" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C553" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D553" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E553" t="b">
         <v>0</v>
@@ -22775,6 +22787,9 @@
       </c>
       <c r="I553" t="b">
         <v>1</v>
+      </c>
+      <c r="J553" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="554" spans="1:10">
@@ -22782,13 +22797,13 @@
         <v>129</v>
       </c>
       <c r="B554" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C554" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D554" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="E554" t="b">
         <v>0</v>
@@ -22804,9 +22819,6 @@
       </c>
       <c r="I554" t="b">
         <v>1</v>
-      </c>
-      <c r="J554" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="555" spans="1:10">
@@ -22814,13 +22826,13 @@
         <v>129</v>
       </c>
       <c r="B555" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C555" t="s">
         <v>784</v>
       </c>
       <c r="D555" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="E555" t="b">
         <v>0</v>
@@ -22843,13 +22855,13 @@
         <v>129</v>
       </c>
       <c r="B556" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C556" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D556" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="E556" t="b">
         <v>0</v>
@@ -22872,13 +22884,13 @@
         <v>129</v>
       </c>
       <c r="B557" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C557" t="s">
         <v>782</v>
       </c>
       <c r="D557" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E557" t="b">
         <v>0</v>
@@ -22901,13 +22913,13 @@
         <v>129</v>
       </c>
       <c r="B558" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C558" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D558" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E558" t="b">
         <v>0</v>
@@ -22923,6 +22935,9 @@
       </c>
       <c r="I558" t="b">
         <v>1</v>
+      </c>
+      <c r="J558" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="559" spans="1:10">
@@ -22930,13 +22945,13 @@
         <v>129</v>
       </c>
       <c r="B559" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C559" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D559" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="E559" t="b">
         <v>0</v>
@@ -22952,9 +22967,6 @@
       </c>
       <c r="I559" t="b">
         <v>1</v>
-      </c>
-      <c r="J559" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="560" spans="1:10">
@@ -22962,13 +22974,13 @@
         <v>129</v>
       </c>
       <c r="B560" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C560" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D560" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="E560" t="b">
         <v>0</v>
@@ -22991,13 +23003,13 @@
         <v>129</v>
       </c>
       <c r="B561" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C561" t="s">
         <v>786</v>
       </c>
       <c r="D561" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="E561" t="b">
         <v>0</v>
@@ -23020,13 +23032,13 @@
         <v>129</v>
       </c>
       <c r="B562" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C562" t="s">
         <v>786</v>
       </c>
       <c r="D562" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="E562" t="b">
         <v>0</v>
@@ -23049,13 +23061,13 @@
         <v>129</v>
       </c>
       <c r="B563" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C563" t="s">
         <v>786</v>
       </c>
       <c r="D563" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="E563" t="b">
         <v>0</v>
@@ -23078,13 +23090,13 @@
         <v>129</v>
       </c>
       <c r="B564" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C564" t="s">
         <v>786</v>
       </c>
       <c r="D564" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="E564" t="b">
         <v>0</v>
@@ -23107,13 +23119,13 @@
         <v>129</v>
       </c>
       <c r="B565" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C565" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D565" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E565" t="b">
         <v>0</v>
@@ -23136,13 +23148,13 @@
         <v>129</v>
       </c>
       <c r="B566" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C566" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D566" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="E566" t="b">
         <v>0</v>
@@ -23158,6 +23170,9 @@
       </c>
       <c r="I566" t="b">
         <v>1</v>
+      </c>
+      <c r="J566" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="567" spans="1:10">
@@ -23165,13 +23180,13 @@
         <v>129</v>
       </c>
       <c r="B567" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C567" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D567" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="E567" t="b">
         <v>0</v>
@@ -23187,9 +23202,6 @@
       </c>
       <c r="I567" t="b">
         <v>1</v>
-      </c>
-      <c r="J567" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="568" spans="1:10">
@@ -23197,13 +23209,13 @@
         <v>129</v>
       </c>
       <c r="B568" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C568" t="s">
         <v>786</v>
       </c>
       <c r="D568" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="E568" t="b">
         <v>0</v>
@@ -23226,13 +23238,13 @@
         <v>129</v>
       </c>
       <c r="B569" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C569" t="s">
         <v>786</v>
       </c>
       <c r="D569" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E569" t="b">
         <v>0</v>
@@ -23255,13 +23267,13 @@
         <v>129</v>
       </c>
       <c r="B570" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C570" t="s">
         <v>786</v>
       </c>
       <c r="D570" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E570" t="b">
         <v>0</v>
@@ -23284,13 +23296,13 @@
         <v>129</v>
       </c>
       <c r="B571" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C571" t="s">
         <v>786</v>
       </c>
       <c r="D571" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E571" t="b">
         <v>0</v>
@@ -23313,13 +23325,13 @@
         <v>129</v>
       </c>
       <c r="B572" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C572" t="s">
         <v>786</v>
       </c>
       <c r="D572" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E572" t="b">
         <v>0</v>
@@ -23342,13 +23354,13 @@
         <v>129</v>
       </c>
       <c r="B573" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C573" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D573" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -23364,6 +23376,9 @@
       </c>
       <c r="I573" t="b">
         <v>1</v>
+      </c>
+      <c r="J573" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -23371,13 +23386,13 @@
         <v>129</v>
       </c>
       <c r="B574" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C574" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D574" t="s">
-        <v>1295</v>
+        <v>647</v>
       </c>
       <c r="E574" t="b">
         <v>0</v>
@@ -23393,9 +23408,6 @@
       </c>
       <c r="I574" t="b">
         <v>1</v>
-      </c>
-      <c r="J574" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="575" spans="1:10">
@@ -23403,13 +23415,13 @@
         <v>129</v>
       </c>
       <c r="B575" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C575" t="s">
         <v>786</v>
       </c>
       <c r="D575" t="s">
-        <v>647</v>
+        <v>1290</v>
       </c>
       <c r="E575" t="b">
         <v>0</v>
@@ -23432,13 +23444,13 @@
         <v>129</v>
       </c>
       <c r="B576" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C576" t="s">
         <v>786</v>
       </c>
       <c r="D576" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="E576" t="b">
         <v>0</v>
@@ -23461,13 +23473,13 @@
         <v>129</v>
       </c>
       <c r="B577" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C577" t="s">
         <v>786</v>
       </c>
       <c r="D577" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="E577" t="b">
         <v>0</v>
@@ -23490,13 +23502,13 @@
         <v>129</v>
       </c>
       <c r="B578" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C578" t="s">
         <v>786</v>
       </c>
       <c r="D578" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="E578" t="b">
         <v>0</v>
@@ -23519,13 +23531,13 @@
         <v>129</v>
       </c>
       <c r="B579" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C579" t="s">
         <v>786</v>
       </c>
       <c r="D579" t="s">
-        <v>1293</v>
+        <v>1296</v>
       </c>
       <c r="E579" t="b">
         <v>0</v>
@@ -23548,13 +23560,13 @@
         <v>129</v>
       </c>
       <c r="B580" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C580" t="s">
         <v>786</v>
       </c>
       <c r="D580" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="E580" t="b">
         <v>0</v>
@@ -23577,13 +23589,13 @@
         <v>129</v>
       </c>
       <c r="B581" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C581" t="s">
         <v>786</v>
       </c>
       <c r="D581" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E581" t="b">
         <v>0</v>
@@ -23606,13 +23618,13 @@
         <v>129</v>
       </c>
       <c r="B582" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C582" t="s">
         <v>786</v>
       </c>
       <c r="D582" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E582" t="b">
         <v>0</v>
@@ -23635,13 +23647,13 @@
         <v>129</v>
       </c>
       <c r="B583" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C583" t="s">
         <v>786</v>
       </c>
       <c r="D583" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="E583" t="b">
         <v>0</v>
@@ -23664,13 +23676,13 @@
         <v>129</v>
       </c>
       <c r="B584" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C584" t="s">
         <v>786</v>
       </c>
       <c r="D584" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E584" t="b">
         <v>0</v>
@@ -23693,13 +23705,13 @@
         <v>129</v>
       </c>
       <c r="B585" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C585" t="s">
         <v>786</v>
       </c>
       <c r="D585" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="E585" t="b">
         <v>0</v>
@@ -23722,13 +23734,13 @@
         <v>129</v>
       </c>
       <c r="B586" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C586" t="s">
         <v>786</v>
       </c>
       <c r="D586" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="E586" t="b">
         <v>0</v>
@@ -23751,13 +23763,13 @@
         <v>129</v>
       </c>
       <c r="B587" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C587" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D587" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="E587" t="b">
         <v>0</v>
@@ -23780,13 +23792,13 @@
         <v>129</v>
       </c>
       <c r="B588" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C588" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D588" t="s">
-        <v>1304</v>
+        <v>999</v>
       </c>
       <c r="E588" t="b">
         <v>0</v>
@@ -23809,13 +23821,13 @@
         <v>129</v>
       </c>
       <c r="B589" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C589" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D589" t="s">
-        <v>999</v>
+        <v>1305</v>
       </c>
       <c r="E589" t="b">
         <v>0</v>
@@ -23838,13 +23850,13 @@
         <v>129</v>
       </c>
       <c r="B590" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C590" t="s">
         <v>782</v>
       </c>
       <c r="D590" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="E590" t="b">
         <v>0</v>
@@ -23867,13 +23879,13 @@
         <v>129</v>
       </c>
       <c r="B591" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C591" t="s">
         <v>782</v>
       </c>
       <c r="D591" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="E591" t="b">
         <v>0</v>
@@ -23896,13 +23908,13 @@
         <v>129</v>
       </c>
       <c r="B592" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C592" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D592" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="E592" t="b">
         <v>0</v>
@@ -23925,13 +23937,13 @@
         <v>129</v>
       </c>
       <c r="B593" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C593" t="s">
         <v>786</v>
       </c>
       <c r="D593" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="E593" t="b">
         <v>0</v>
@@ -23954,13 +23966,13 @@
         <v>129</v>
       </c>
       <c r="B594" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C594" t="s">
         <v>786</v>
       </c>
       <c r="D594" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="E594" t="b">
         <v>0</v>
@@ -23983,13 +23995,13 @@
         <v>129</v>
       </c>
       <c r="B595" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C595" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D595" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="E595" t="b">
         <v>0</v>
@@ -24005,6 +24017,9 @@
       </c>
       <c r="I595" t="b">
         <v>1</v>
+      </c>
+      <c r="J595" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -24012,13 +24027,13 @@
         <v>129</v>
       </c>
       <c r="B596" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C596" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D596" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="E596" t="b">
         <v>0</v>
@@ -24034,9 +24049,6 @@
       </c>
       <c r="I596" t="b">
         <v>1</v>
-      </c>
-      <c r="J596" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="597" spans="1:10">
@@ -24044,13 +24056,13 @@
         <v>129</v>
       </c>
       <c r="B597" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C597" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D597" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="E597" t="b">
         <v>0</v>
@@ -24066,6 +24078,9 @@
       </c>
       <c r="I597" t="b">
         <v>1</v>
+      </c>
+      <c r="J597" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="598" spans="1:10">
@@ -24073,13 +24088,13 @@
         <v>129</v>
       </c>
       <c r="B598" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C598" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D598" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="E598" t="b">
         <v>0</v>
@@ -24095,9 +24110,6 @@
       </c>
       <c r="I598" t="b">
         <v>1</v>
-      </c>
-      <c r="J598" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="599" spans="1:10">
@@ -24105,13 +24117,13 @@
         <v>129</v>
       </c>
       <c r="B599" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C599" t="s">
         <v>782</v>
       </c>
       <c r="D599" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="E599" t="b">
         <v>0</v>
@@ -24134,13 +24146,13 @@
         <v>129</v>
       </c>
       <c r="B600" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C600" t="s">
         <v>782</v>
       </c>
       <c r="D600" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="E600" t="b">
         <v>0</v>
@@ -24163,13 +24175,13 @@
         <v>129</v>
       </c>
       <c r="B601" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C601" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D601" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="E601" t="b">
         <v>0</v>
@@ -24185,6 +24197,9 @@
       </c>
       <c r="I601" t="b">
         <v>1</v>
+      </c>
+      <c r="J601" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="602" spans="1:10">
@@ -24192,13 +24207,13 @@
         <v>129</v>
       </c>
       <c r="B602" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C602" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D602" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="E602" t="b">
         <v>0</v>
@@ -24214,9 +24229,6 @@
       </c>
       <c r="I602" t="b">
         <v>1</v>
-      </c>
-      <c r="J602" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="603" spans="1:10">
@@ -24224,13 +24236,13 @@
         <v>129</v>
       </c>
       <c r="B603" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C603" t="s">
         <v>786</v>
       </c>
       <c r="D603" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="E603" t="b">
         <v>0</v>
@@ -24253,13 +24265,13 @@
         <v>129</v>
       </c>
       <c r="B604" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C604" t="s">
         <v>786</v>
       </c>
       <c r="D604" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="E604" t="b">
         <v>0</v>
@@ -24282,13 +24294,13 @@
         <v>129</v>
       </c>
       <c r="B605" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C605" t="s">
         <v>786</v>
       </c>
       <c r="D605" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="E605" t="b">
         <v>0</v>
@@ -24311,13 +24323,13 @@
         <v>129</v>
       </c>
       <c r="B606" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C606" t="s">
         <v>786</v>
       </c>
       <c r="D606" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="E606" t="b">
         <v>0</v>
@@ -24340,13 +24352,13 @@
         <v>129</v>
       </c>
       <c r="B607" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C607" t="s">
         <v>786</v>
       </c>
       <c r="D607" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="E607" t="b">
         <v>0</v>
@@ -24369,13 +24381,13 @@
         <v>129</v>
       </c>
       <c r="B608" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C608" t="s">
         <v>786</v>
       </c>
       <c r="D608" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="E608" t="b">
         <v>0</v>
@@ -24398,13 +24410,13 @@
         <v>129</v>
       </c>
       <c r="B609" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C609" t="s">
         <v>786</v>
       </c>
       <c r="D609" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="E609" t="b">
         <v>0</v>
@@ -24427,13 +24439,13 @@
         <v>129</v>
       </c>
       <c r="B610" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C610" t="s">
         <v>786</v>
       </c>
       <c r="D610" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="E610" t="b">
         <v>0</v>
@@ -24456,13 +24468,13 @@
         <v>129</v>
       </c>
       <c r="B611" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C611" t="s">
         <v>786</v>
       </c>
       <c r="D611" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="E611" t="b">
         <v>0</v>
@@ -24485,13 +24497,13 @@
         <v>129</v>
       </c>
       <c r="B612" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C612" t="s">
         <v>786</v>
       </c>
       <c r="D612" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="E612" t="b">
         <v>0</v>
@@ -24514,13 +24526,13 @@
         <v>129</v>
       </c>
       <c r="B613" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C613" t="s">
         <v>786</v>
       </c>
       <c r="D613" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="E613" t="b">
         <v>0</v>
@@ -24543,13 +24555,13 @@
         <v>129</v>
       </c>
       <c r="B614" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C614" t="s">
         <v>786</v>
       </c>
       <c r="D614" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="E614" t="b">
         <v>0</v>
@@ -24572,13 +24584,13 @@
         <v>129</v>
       </c>
       <c r="B615" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C615" t="s">
         <v>786</v>
       </c>
       <c r="D615" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="E615" t="b">
         <v>0</v>
@@ -24601,13 +24613,13 @@
         <v>129</v>
       </c>
       <c r="B616" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C616" t="s">
         <v>786</v>
       </c>
       <c r="D616" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="E616" t="b">
         <v>0</v>
@@ -24630,13 +24642,13 @@
         <v>129</v>
       </c>
       <c r="B617" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C617" t="s">
         <v>786</v>
       </c>
       <c r="D617" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="E617" t="b">
         <v>0</v>
@@ -24659,13 +24671,13 @@
         <v>129</v>
       </c>
       <c r="B618" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C618" t="s">
         <v>786</v>
       </c>
       <c r="D618" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="E618" t="b">
         <v>0</v>
@@ -24688,13 +24700,13 @@
         <v>129</v>
       </c>
       <c r="B619" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C619" t="s">
         <v>786</v>
       </c>
       <c r="D619" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="E619" t="b">
         <v>0</v>
@@ -24717,13 +24729,13 @@
         <v>129</v>
       </c>
       <c r="B620" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C620" t="s">
         <v>786</v>
       </c>
       <c r="D620" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="E620" t="b">
         <v>0</v>
@@ -24746,13 +24758,13 @@
         <v>129</v>
       </c>
       <c r="B621" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C621" t="s">
         <v>786</v>
       </c>
       <c r="D621" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="E621" t="b">
         <v>0</v>
@@ -24775,13 +24787,13 @@
         <v>129</v>
       </c>
       <c r="B622" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C622" t="s">
         <v>786</v>
       </c>
       <c r="D622" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="E622" t="b">
         <v>0</v>
@@ -24804,13 +24816,13 @@
         <v>129</v>
       </c>
       <c r="B623" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C623" t="s">
         <v>786</v>
       </c>
       <c r="D623" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="E623" t="b">
         <v>0</v>
@@ -24833,13 +24845,13 @@
         <v>129</v>
       </c>
       <c r="B624" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C624" t="s">
         <v>786</v>
       </c>
       <c r="D624" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="E624" t="b">
         <v>0</v>
@@ -24862,13 +24874,13 @@
         <v>129</v>
       </c>
       <c r="B625" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C625" t="s">
         <v>786</v>
       </c>
       <c r="D625" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="E625" t="b">
         <v>0</v>
@@ -24891,13 +24903,13 @@
         <v>129</v>
       </c>
       <c r="B626" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C626" t="s">
         <v>786</v>
       </c>
       <c r="D626" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="E626" t="b">
         <v>0</v>
@@ -24920,13 +24932,13 @@
         <v>129</v>
       </c>
       <c r="B627" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C627" t="s">
         <v>786</v>
       </c>
       <c r="D627" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="E627" t="b">
         <v>0</v>
@@ -24949,13 +24961,13 @@
         <v>129</v>
       </c>
       <c r="B628" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C628" t="s">
         <v>786</v>
       </c>
       <c r="D628" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="E628" t="b">
         <v>0</v>
@@ -24978,13 +24990,13 @@
         <v>129</v>
       </c>
       <c r="B629" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C629" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D629" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="E629" t="b">
         <v>0</v>
@@ -25007,13 +25019,13 @@
         <v>129</v>
       </c>
       <c r="B630" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C630" t="s">
         <v>782</v>
       </c>
       <c r="D630" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="E630" t="b">
         <v>0</v>
@@ -25036,13 +25048,13 @@
         <v>129</v>
       </c>
       <c r="B631" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C631" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D631" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="E631" t="b">
         <v>0</v>
@@ -25065,13 +25077,13 @@
         <v>129</v>
       </c>
       <c r="B632" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C632" t="s">
         <v>786</v>
       </c>
       <c r="D632" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="E632" t="b">
         <v>0</v>
@@ -25094,13 +25106,13 @@
         <v>129</v>
       </c>
       <c r="B633" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C633" t="s">
         <v>786</v>
       </c>
       <c r="D633" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="E633" t="b">
         <v>0</v>
@@ -25123,13 +25135,13 @@
         <v>129</v>
       </c>
       <c r="B634" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C634" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D634" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="E634" t="b">
         <v>0</v>
@@ -25152,13 +25164,13 @@
         <v>129</v>
       </c>
       <c r="B635" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C635" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D635" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="E635" t="b">
         <v>0</v>
@@ -25174,6 +25186,9 @@
       </c>
       <c r="I635" t="b">
         <v>1</v>
+      </c>
+      <c r="J635" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="636" spans="1:10">
@@ -25181,13 +25196,13 @@
         <v>129</v>
       </c>
       <c r="B636" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C636" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D636" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="E636" t="b">
         <v>0</v>
@@ -25203,9 +25218,6 @@
       </c>
       <c r="I636" t="b">
         <v>1</v>
-      </c>
-      <c r="J636" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="637" spans="1:10">
@@ -25213,13 +25225,13 @@
         <v>129</v>
       </c>
       <c r="B637" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C637" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D637" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="E637" t="b">
         <v>0</v>
@@ -25242,13 +25254,13 @@
         <v>129</v>
       </c>
       <c r="B638" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C638" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="D638" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="E638" t="b">
         <v>0</v>
@@ -25264,6 +25276,9 @@
       </c>
       <c r="I638" t="b">
         <v>1</v>
+      </c>
+      <c r="J638" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -25271,13 +25286,13 @@
         <v>129</v>
       </c>
       <c r="B639" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C639" t="s">
         <v>783</v>
       </c>
       <c r="D639" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="E639" t="b">
         <v>0</v>
@@ -25303,13 +25318,13 @@
         <v>129</v>
       </c>
       <c r="B640" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C640" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D640" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="E640" t="b">
         <v>0</v>
@@ -25325,9 +25340,6 @@
       </c>
       <c r="I640" t="b">
         <v>1</v>
-      </c>
-      <c r="J640" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="641" spans="1:10">
@@ -25335,13 +25347,13 @@
         <v>129</v>
       </c>
       <c r="B641" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C641" t="s">
         <v>786</v>
       </c>
       <c r="D641" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="E641" t="b">
         <v>0</v>
@@ -25364,13 +25376,13 @@
         <v>129</v>
       </c>
       <c r="B642" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C642" t="s">
         <v>786</v>
       </c>
       <c r="D642" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="E642" t="b">
         <v>0</v>
@@ -25393,13 +25405,13 @@
         <v>129</v>
       </c>
       <c r="B643" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C643" t="s">
         <v>786</v>
       </c>
       <c r="D643" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="E643" t="b">
         <v>0</v>
@@ -25422,13 +25434,13 @@
         <v>129</v>
       </c>
       <c r="B644" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C644" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D644" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="E644" t="b">
         <v>0</v>
@@ -25451,13 +25463,13 @@
         <v>129</v>
       </c>
       <c r="B645" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C645" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D645" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="E645" t="b">
         <v>0</v>
@@ -25473,6 +25485,9 @@
       </c>
       <c r="I645" t="b">
         <v>1</v>
+      </c>
+      <c r="J645" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="646" spans="1:10">
@@ -25480,13 +25495,13 @@
         <v>129</v>
       </c>
       <c r="B646" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C646" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D646" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="E646" t="b">
         <v>0</v>
@@ -25502,9 +25517,6 @@
       </c>
       <c r="I646" t="b">
         <v>1</v>
-      </c>
-      <c r="J646" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="647" spans="1:10">
@@ -25512,13 +25524,13 @@
         <v>129</v>
       </c>
       <c r="B647" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C647" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D647" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="E647" t="b">
         <v>0</v>
@@ -25534,6 +25546,9 @@
       </c>
       <c r="I647" t="b">
         <v>1</v>
+      </c>
+      <c r="J647" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -25541,13 +25556,13 @@
         <v>129</v>
       </c>
       <c r="B648" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C648" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="D648" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="E648" t="b">
         <v>0</v>
@@ -25563,9 +25578,6 @@
       </c>
       <c r="I648" t="b">
         <v>1</v>
-      </c>
-      <c r="J648" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="649" spans="1:10">
@@ -25573,13 +25585,13 @@
         <v>129</v>
       </c>
       <c r="B649" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C649" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D649" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="E649" t="b">
         <v>0</v>
@@ -25595,6 +25607,9 @@
       </c>
       <c r="I649" t="b">
         <v>1</v>
+      </c>
+      <c r="J649" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="650" spans="1:10">
@@ -25602,13 +25617,13 @@
         <v>129</v>
       </c>
       <c r="B650" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C650" t="s">
         <v>783</v>
       </c>
       <c r="D650" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="E650" t="b">
         <v>0</v>
@@ -25634,13 +25649,13 @@
         <v>129</v>
       </c>
       <c r="B651" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C651" t="s">
         <v>783</v>
       </c>
       <c r="D651" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="E651" t="b">
         <v>0</v>
@@ -25666,13 +25681,13 @@
         <v>129</v>
       </c>
       <c r="B652" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C652" t="s">
         <v>783</v>
       </c>
       <c r="D652" t="s">
-        <v>1367</v>
+        <v>1368</v>
       </c>
       <c r="E652" t="b">
         <v>0</v>
@@ -25698,13 +25713,13 @@
         <v>129</v>
       </c>
       <c r="B653" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C653" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D653" t="s">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="E653" t="b">
         <v>0</v>
@@ -25720,9 +25735,6 @@
       </c>
       <c r="I653" t="b">
         <v>1</v>
-      </c>
-      <c r="J653" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="654" spans="1:10">
@@ -25730,13 +25742,13 @@
         <v>129</v>
       </c>
       <c r="B654" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C654" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D654" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="E654" t="b">
         <v>0</v>
@@ -25752,6 +25764,9 @@
       </c>
       <c r="I654" t="b">
         <v>1</v>
+      </c>
+      <c r="J654" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="655" spans="1:10">
@@ -25759,13 +25774,13 @@
         <v>129</v>
       </c>
       <c r="B655" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C655" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D655" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="E655" t="b">
         <v>0</v>
@@ -25781,9 +25796,6 @@
       </c>
       <c r="I655" t="b">
         <v>1</v>
-      </c>
-      <c r="J655" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="656" spans="1:10">
@@ -25791,13 +25803,13 @@
         <v>129</v>
       </c>
       <c r="B656" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C656" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D656" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="E656" t="b">
         <v>0</v>
@@ -25813,6 +25825,9 @@
       </c>
       <c r="I656" t="b">
         <v>1</v>
+      </c>
+      <c r="J656" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="657" spans="1:10">
@@ -25820,13 +25835,13 @@
         <v>129</v>
       </c>
       <c r="B657" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C657" t="s">
         <v>783</v>
       </c>
       <c r="D657" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="E657" t="b">
         <v>0</v>
@@ -25844,7 +25859,7 @@
         <v>1</v>
       </c>
       <c r="J657" t="s">
-        <v>1426</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="658" spans="1:10">
@@ -25852,13 +25867,13 @@
         <v>129</v>
       </c>
       <c r="B658" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C658" t="s">
         <v>783</v>
       </c>
       <c r="D658" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="E658" t="b">
         <v>0</v>
@@ -25876,7 +25891,7 @@
         <v>1</v>
       </c>
       <c r="J658" t="s">
-        <v>1453</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="659" spans="1:10">
@@ -25884,13 +25899,13 @@
         <v>129</v>
       </c>
       <c r="B659" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C659" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D659" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="E659" t="b">
         <v>0</v>
@@ -25906,9 +25921,6 @@
       </c>
       <c r="I659" t="b">
         <v>1</v>
-      </c>
-      <c r="J659" t="s">
-        <v>1426</v>
       </c>
     </row>
     <row r="660" spans="1:10">
@@ -25916,13 +25928,13 @@
         <v>129</v>
       </c>
       <c r="B660" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C660" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D660" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="E660" t="b">
         <v>0</v>
@@ -25945,13 +25957,13 @@
         <v>129</v>
       </c>
       <c r="B661" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C661" t="s">
         <v>786</v>
       </c>
       <c r="D661" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="E661" t="b">
         <v>0</v>
@@ -25974,13 +25986,13 @@
         <v>129</v>
       </c>
       <c r="B662" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C662" t="s">
         <v>786</v>
       </c>
       <c r="D662" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="E662" t="b">
         <v>0</v>
@@ -26003,13 +26015,13 @@
         <v>129</v>
       </c>
       <c r="B663" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C663" t="s">
         <v>786</v>
       </c>
       <c r="D663" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="E663" t="b">
         <v>0</v>
@@ -26032,13 +26044,13 @@
         <v>129</v>
       </c>
       <c r="B664" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C664" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D664" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="E664" t="b">
         <v>0</v>
@@ -26061,13 +26073,13 @@
         <v>129</v>
       </c>
       <c r="B665" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C665" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D665" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="E665" t="b">
         <v>0</v>
@@ -26090,13 +26102,13 @@
         <v>129</v>
       </c>
       <c r="B666" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C666" t="s">
         <v>786</v>
       </c>
       <c r="D666" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="E666" t="b">
         <v>0</v>
@@ -26119,13 +26131,13 @@
         <v>129</v>
       </c>
       <c r="B667" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C667" t="s">
         <v>786</v>
       </c>
       <c r="D667" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="E667" t="b">
         <v>0</v>
@@ -26148,13 +26160,13 @@
         <v>129</v>
       </c>
       <c r="B668" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C668" t="s">
         <v>786</v>
       </c>
       <c r="D668" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="E668" t="b">
         <v>0</v>
@@ -26177,13 +26189,13 @@
         <v>129</v>
       </c>
       <c r="B669" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C669" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="D669" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
       <c r="E669" t="b">
         <v>0</v>
@@ -26206,13 +26218,13 @@
         <v>129</v>
       </c>
       <c r="B670" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C670" t="s">
         <v>782</v>
       </c>
       <c r="D670" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="E670" t="b">
         <v>0</v>
@@ -26235,13 +26247,13 @@
         <v>129</v>
       </c>
       <c r="B671" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C671" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D671" t="s">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="E671" t="b">
         <v>0</v>
@@ -26257,6 +26269,9 @@
       </c>
       <c r="I671" t="b">
         <v>1</v>
+      </c>
+      <c r="J671" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="672" spans="1:10">
@@ -26264,13 +26279,13 @@
         <v>129</v>
       </c>
       <c r="B672" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C672" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D672" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="E672" t="b">
         <v>0</v>
@@ -26287,22 +26302,19 @@
       <c r="I672" t="b">
         <v>1</v>
       </c>
-      <c r="J672" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="673" spans="1:10">
+    </row>
+    <row r="673" spans="1:11">
       <c r="A673" t="s">
         <v>129</v>
       </c>
       <c r="B673" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C673" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="D673" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="E673" t="b">
         <v>0</v>
@@ -26320,18 +26332,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:10">
+    <row r="674" spans="1:11">
       <c r="A674" t="s">
         <v>129</v>
       </c>
       <c r="B674" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C674" t="s">
         <v>786</v>
       </c>
       <c r="D674" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="E674" t="b">
         <v>0</v>
@@ -26349,18 +26361,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="675" spans="1:10">
+    <row r="675" spans="1:11">
       <c r="A675" t="s">
         <v>129</v>
       </c>
       <c r="B675" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C675" t="s">
         <v>786</v>
       </c>
       <c r="D675" t="s">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="E675" t="b">
         <v>0</v>
@@ -26378,18 +26390,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="676" spans="1:10">
+    <row r="676" spans="1:11">
       <c r="A676" t="s">
         <v>129</v>
       </c>
       <c r="B676" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C676" t="s">
         <v>786</v>
       </c>
       <c r="D676" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="E676" t="b">
         <v>0</v>
@@ -26407,18 +26419,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="677" spans="1:10">
+    <row r="677" spans="1:11">
       <c r="A677" t="s">
         <v>129</v>
       </c>
       <c r="B677" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C677" t="s">
         <v>786</v>
       </c>
       <c r="D677" t="s">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="E677" t="b">
         <v>0</v>
@@ -26436,18 +26448,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="678" spans="1:10">
+    <row r="678" spans="1:11">
       <c r="A678" t="s">
         <v>129</v>
       </c>
       <c r="B678" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C678" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="D678" t="s">
-        <v>1393</v>
+        <v>1394</v>
       </c>
       <c r="E678" t="b">
         <v>0</v>
@@ -26464,19 +26476,22 @@
       <c r="I678" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="679" spans="1:10">
+      <c r="J678" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="679" spans="1:11">
       <c r="A679" t="s">
         <v>129</v>
       </c>
       <c r="B679" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C679" t="s">
         <v>783</v>
       </c>
       <c r="D679" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="E679" t="b">
         <v>0</v>
@@ -26497,18 +26512,18 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="680" spans="1:10">
+    <row r="680" spans="1:11">
       <c r="A680" t="s">
         <v>129</v>
       </c>
       <c r="B680" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C680" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D680" t="s">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="E680" t="b">
         <v>0</v>
@@ -26525,22 +26540,19 @@
       <c r="I680" t="b">
         <v>1</v>
       </c>
-      <c r="J680" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="681" spans="1:10">
+    </row>
+    <row r="681" spans="1:11">
       <c r="A681" t="s">
         <v>129</v>
       </c>
       <c r="B681" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C681" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D681" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="E681" t="b">
         <v>0</v>
@@ -26557,19 +26569,22 @@
       <c r="I681" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="682" spans="1:10">
+      <c r="J681" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="682" spans="1:11">
       <c r="A682" t="s">
         <v>129</v>
       </c>
       <c r="B682" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C682" t="s">
         <v>783</v>
       </c>
       <c r="D682" t="s">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="E682" t="b">
         <v>0</v>
@@ -26590,18 +26605,18 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="683" spans="1:10">
+    <row r="683" spans="1:11">
       <c r="A683" t="s">
         <v>129</v>
       </c>
       <c r="B683" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C683" t="s">
         <v>783</v>
       </c>
       <c r="D683" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="E683" t="b">
         <v>0</v>
@@ -26622,18 +26637,18 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="684" spans="1:10">
+    <row r="684" spans="1:11">
       <c r="A684" t="s">
         <v>129</v>
       </c>
       <c r="B684" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C684" t="s">
         <v>783</v>
       </c>
       <c r="D684" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="E684" t="b">
         <v>0</v>
@@ -26654,18 +26669,18 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="685" spans="1:10">
+    <row r="685" spans="1:11">
       <c r="A685" t="s">
         <v>129</v>
       </c>
       <c r="B685" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C685" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D685" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="E685" t="b">
         <v>0</v>
@@ -26682,22 +26697,19 @@
       <c r="I685" t="b">
         <v>1</v>
       </c>
-      <c r="J685" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="686" spans="1:10">
+    </row>
+    <row r="686" spans="1:11">
       <c r="A686" t="s">
         <v>129</v>
       </c>
       <c r="B686" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C686" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D686" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="E686" t="b">
         <v>0</v>
@@ -26714,19 +26726,22 @@
       <c r="I686" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="687" spans="1:10">
+      <c r="J686" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="687" spans="1:11">
       <c r="A687" t="s">
         <v>129</v>
       </c>
       <c r="B687" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C687" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D687" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="E687" t="b">
         <v>0</v>
@@ -26743,28 +26758,25 @@
       <c r="I687" t="b">
         <v>1</v>
       </c>
-      <c r="J687" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="688" spans="1:10">
+    </row>
+    <row r="688" spans="1:11">
       <c r="A688" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B688" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C688" t="s">
         <v>782</v>
       </c>
       <c r="D688" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="E688" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G688" t="b">
         <v>0</v>
@@ -26774,6 +26786,9 @@
       </c>
       <c r="I688" t="b">
         <v>1</v>
+      </c>
+      <c r="K688" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="689" spans="1:11">
@@ -26781,19 +26796,19 @@
         <v>130</v>
       </c>
       <c r="B689" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C689" t="s">
         <v>782</v>
       </c>
       <c r="D689" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
       <c r="E689" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F689" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G689" t="b">
         <v>0</v>
@@ -26813,13 +26828,13 @@
         <v>130</v>
       </c>
       <c r="B690" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C690" t="s">
         <v>782</v>
       </c>
       <c r="D690" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="E690" t="b">
         <v>0</v>
@@ -26835,9 +26850,6 @@
       </c>
       <c r="I690" t="b">
         <v>1</v>
-      </c>
-      <c r="K690" t="s">
-        <v>1454</v>
       </c>
     </row>
     <row r="691" spans="1:11">
@@ -26845,13 +26857,13 @@
         <v>130</v>
       </c>
       <c r="B691" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C691" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D691" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="E691" t="b">
         <v>0</v>
@@ -26867,6 +26879,12 @@
       </c>
       <c r="I691" t="b">
         <v>1</v>
+      </c>
+      <c r="J691" t="s">
+        <v>114</v>
+      </c>
+      <c r="K691" t="s">
+        <v>1455</v>
       </c>
     </row>
     <row r="692" spans="1:11">
@@ -26874,13 +26892,13 @@
         <v>130</v>
       </c>
       <c r="B692" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C692" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="D692" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
       <c r="E692" t="b">
         <v>0</v>
@@ -26898,10 +26916,7 @@
         <v>1</v>
       </c>
       <c r="J692" t="s">
-        <v>114</v>
-      </c>
-      <c r="K692" t="s">
-        <v>1455</v>
+        <v>131</v>
       </c>
     </row>
     <row r="693" spans="1:11">
@@ -26909,13 +26924,13 @@
         <v>130</v>
       </c>
       <c r="B693" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C693" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D693" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="E693" t="b">
         <v>0</v>
@@ -26932,8 +26947,8 @@
       <c r="I693" t="b">
         <v>1</v>
       </c>
-      <c r="J693" t="s">
-        <v>131</v>
+      <c r="K693" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="694" spans="1:11">
@@ -26941,13 +26956,13 @@
         <v>130</v>
       </c>
       <c r="B694" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C694" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="D694" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="E694" t="b">
         <v>0</v>
@@ -26965,7 +26980,7 @@
         <v>1</v>
       </c>
       <c r="K694" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="695" spans="1:11">
@@ -26973,13 +26988,13 @@
         <v>130</v>
       </c>
       <c r="B695" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="C695" t="s">
         <v>782</v>
       </c>
       <c r="D695" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="E695" t="b">
         <v>0</v>
@@ -26995,29 +27010,26 @@
       </c>
       <c r="I695" t="b">
         <v>1</v>
-      </c>
-      <c r="K695" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="696" spans="1:11">
       <c r="A696" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B696" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="C696" t="s">
         <v>782</v>
       </c>
       <c r="D696" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="E696" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F696" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G696" t="b">
         <v>0</v>
@@ -27027,6 +27039,9 @@
       </c>
       <c r="I696" t="b">
         <v>1</v>
+      </c>
+      <c r="K696" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="697" spans="1:11">
@@ -27034,19 +27049,19 @@
         <v>131</v>
       </c>
       <c r="B697" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C697" t="s">
-        <v>782</v>
+        <v>789</v>
       </c>
       <c r="D697" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="E697" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F697" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G697" t="b">
         <v>0</v>
@@ -27057,8 +27072,11 @@
       <c r="I697" t="b">
         <v>1</v>
       </c>
+      <c r="J697" t="s">
+        <v>132</v>
+      </c>
       <c r="K697" t="s">
-        <v>1458</v>
+        <v>107</v>
       </c>
     </row>
     <row r="698" spans="1:11">
@@ -27066,13 +27084,13 @@
         <v>131</v>
       </c>
       <c r="B698" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="C698" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D698" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="E698" t="b">
         <v>0</v>
@@ -27089,11 +27107,8 @@
       <c r="I698" t="b">
         <v>1</v>
       </c>
-      <c r="J698" t="s">
-        <v>132</v>
-      </c>
       <c r="K698" t="s">
-        <v>107</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="699" spans="1:11">
@@ -27101,13 +27116,13 @@
         <v>131</v>
       </c>
       <c r="B699" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C699" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D699" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="E699" t="b">
         <v>0</v>
@@ -27125,27 +27140,27 @@
         <v>1</v>
       </c>
       <c r="K699" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="700" spans="1:11">
       <c r="A700" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B700" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="C700" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D700" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="E700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F700" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G700" t="b">
         <v>0</v>
@@ -27157,7 +27172,7 @@
         <v>1</v>
       </c>
       <c r="K700" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="701" spans="1:11">
@@ -27165,31 +27180,31 @@
         <v>132</v>
       </c>
       <c r="B701" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C701" t="s">
         <v>782</v>
       </c>
       <c r="D701" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="E701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I701" t="b">
         <v>1</v>
       </c>
       <c r="K701" t="s">
-        <v>1460</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="702" spans="1:11">
@@ -27197,13 +27212,13 @@
         <v>132</v>
       </c>
       <c r="B702" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C702" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D702" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="E702" t="b">
         <v>0</v>
@@ -27212,16 +27227,16 @@
         <v>1</v>
       </c>
       <c r="G702" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H702" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I702" t="b">
         <v>1</v>
       </c>
       <c r="K702" t="s">
-        <v>1461</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="703" spans="1:11">
@@ -27229,13 +27244,13 @@
         <v>132</v>
       </c>
       <c r="B703" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C703" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D703" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="E703" t="b">
         <v>0</v>
@@ -27253,7 +27268,7 @@
         <v>1</v>
       </c>
       <c r="K703" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="704" spans="1:11">
@@ -27261,13 +27276,13 @@
         <v>132</v>
       </c>
       <c r="B704" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C704" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D704" t="s">
-        <v>1418</v>
+        <v>1414</v>
       </c>
       <c r="E704" t="b">
         <v>0</v>
@@ -27285,39 +27300,39 @@
         <v>1</v>
       </c>
       <c r="K704" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="705" spans="1:11">
       <c r="A705" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B705" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C705" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D705" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="E705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I705" t="b">
         <v>1</v>
       </c>
       <c r="K705" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="706" spans="1:11">
@@ -27325,31 +27340,31 @@
         <v>111</v>
       </c>
       <c r="B706" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C706" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D706" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I706" t="b">
         <v>1</v>
       </c>
       <c r="K706" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="707" spans="1:11">
@@ -27357,13 +27372,13 @@
         <v>111</v>
       </c>
       <c r="B707" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C707" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D707" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E707" t="b">
         <v>0</v>
@@ -27381,7 +27396,7 @@
         <v>1</v>
       </c>
       <c r="K707" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="708" spans="1:11">
@@ -27389,13 +27404,13 @@
         <v>111</v>
       </c>
       <c r="B708" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C708" t="s">
         <v>782</v>
       </c>
       <c r="D708" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E708" t="b">
         <v>0</v>
@@ -27413,7 +27428,7 @@
         <v>1</v>
       </c>
       <c r="K708" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="709" spans="1:11">
@@ -27421,13 +27436,13 @@
         <v>111</v>
       </c>
       <c r="B709" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C709" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D709" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="E709" t="b">
         <v>0</v>
@@ -27445,21 +27460,21 @@
         <v>1</v>
       </c>
       <c r="K709" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="710" spans="1:11">
       <c r="A710" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B710" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C710" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D710" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="E710" t="b">
         <v>0</v>
@@ -27468,16 +27483,16 @@
         <v>1</v>
       </c>
       <c r="G710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H710" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I710" t="b">
         <v>1</v>
       </c>
       <c r="K710" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="711" spans="1:11">
@@ -27485,13 +27500,13 @@
         <v>112</v>
       </c>
       <c r="B711" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C711" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D711" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E711" t="b">
         <v>0</v>
@@ -27500,16 +27515,16 @@
         <v>1</v>
       </c>
       <c r="G711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H711" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I711" t="b">
         <v>1</v>
       </c>
       <c r="K711" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="712" spans="1:11">
@@ -27517,13 +27532,13 @@
         <v>112</v>
       </c>
       <c r="B712" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C712" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="D712" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="E712" t="b">
         <v>0</v>
@@ -27541,7 +27556,7 @@
         <v>1</v>
       </c>
       <c r="K712" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="713" spans="1:11">
@@ -27549,19 +27564,19 @@
         <v>112</v>
       </c>
       <c r="B713" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C713" t="s">
         <v>782</v>
       </c>
       <c r="D713" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="E713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G713" t="b">
         <v>0</v>
@@ -27573,7 +27588,7 @@
         <v>1</v>
       </c>
       <c r="K713" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="714" spans="1:11">
@@ -27581,19 +27596,19 @@
         <v>112</v>
       </c>
       <c r="B714" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="C714" t="s">
-        <v>782</v>
+        <v>790</v>
       </c>
       <c r="D714" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="E714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G714" t="b">
         <v>0</v>
@@ -27605,27 +27620,27 @@
         <v>1</v>
       </c>
       <c r="K714" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="715" spans="1:11">
       <c r="A715" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B715" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="C715" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="D715" t="s">
-        <v>1414</v>
+        <v>1419</v>
       </c>
       <c r="E715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G715" t="b">
         <v>0</v>
@@ -27637,7 +27652,7 @@
         <v>1</v>
       </c>
       <c r="K715" t="s">
-        <v>1459</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="716" spans="1:11">
@@ -27645,62 +27660,30 @@
         <v>113</v>
       </c>
       <c r="B716" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="C716" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="D716" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E716" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H716" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I716" t="b">
         <v>1</v>
       </c>
       <c r="K716" t="s">
-        <v>1464</v>
-      </c>
-    </row>
-    <row r="717" spans="1:11">
-      <c r="A717" t="s">
-        <v>113</v>
-      </c>
-      <c r="B717" t="s">
-        <v>775</v>
-      </c>
-      <c r="C717" t="s">
-        <v>788</v>
-      </c>
-      <c r="D717" t="s">
-        <v>1420</v>
-      </c>
-      <c r="E717" t="b">
-        <v>0</v>
-      </c>
-      <c r="F717" t="b">
-        <v>1</v>
-      </c>
-      <c r="G717" t="b">
-        <v>1</v>
-      </c>
-      <c r="H717" t="b">
-        <v>1</v>
-      </c>
-      <c r="I717" t="b">
-        <v>1</v>
-      </c>
-      <c r="K717" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -27779,10 +27762,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1482</v>
@@ -27799,16 +27782,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1483</v>
       </c>
       <c r="D5" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E5" t="s">
         <v>1506</v>
@@ -27819,10 +27802,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1484</v>
@@ -27848,7 +27831,7 @@
         <v>1485</v>
       </c>
       <c r="D7" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="E7" t="s">
         <v>1506</v>
@@ -27859,10 +27842,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1486</v>
@@ -27879,16 +27862,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="D9" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E9" t="s">
         <v>1506</v>
@@ -27899,10 +27882,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="B10" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1488</v>
@@ -27919,10 +27902,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="B11" t="s">
-        <v>1460</v>
+        <v>1455</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1489</v>
@@ -27939,16 +27922,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>1462</v>
       </c>
       <c r="B12" t="s">
-        <v>107</v>
+        <v>1462</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
       <c r="D12" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="E12" t="s">
         <v>1506</v>
@@ -27959,13 +27942,13 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="B13" t="s">
-        <v>1464</v>
+        <v>1460</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D13" t="s">
         <v>1502</v>
@@ -27979,13 +27962,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="B14" t="s">
-        <v>1466</v>
+        <v>1457</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D14" t="s">
         <v>1502</v>
@@ -27999,13 +27982,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="B15" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="D15" t="s">
         <v>1502</v>
@@ -28019,13 +28002,13 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="B16" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
       <c r="D16" t="s">
         <v>1502</v>
@@ -28039,13 +28022,13 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="B17" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="D17" t="s">
         <v>1502</v>
@@ -28059,16 +28042,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="B18" t="s">
-        <v>1454</v>
+        <v>1463</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="D18" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E18" t="s">
         <v>1506</v>
@@ -28079,16 +28062,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B19" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="D19" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="E19" t="s">
         <v>1506</v>
@@ -28099,13 +28082,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="B20" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D20" t="s">
         <v>1502</v>
@@ -28119,13 +28102,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="B21" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="D21" t="s">
         <v>1502</v>
@@ -28139,16 +28122,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>1459</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
-        <v>1459</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="D22" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E22" t="s">
         <v>1506</v>
@@ -28159,10 +28142,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="B23" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1500</v>

--- a/dist/PerSAIDs.xlsx
+++ b/dist/PerSAIDs.xlsx
@@ -4465,61 +4465,61 @@
     <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C15607</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
   </si>
   <si>
+    <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C16977</t>
   </si>
   <si>
-    <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
   </si>
   <si>
     <t>dcat</t>
@@ -27762,10 +27762,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1482</v>
@@ -27782,10 +27782,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>1483</v>
@@ -27802,10 +27802,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1484</v>
@@ -27842,16 +27842,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1486</v>
       </c>
       <c r="D8" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E8" t="s">
         <v>1506</v>
@@ -27862,16 +27862,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1487</v>
       </c>
       <c r="D9" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E9" t="s">
         <v>1506</v>
@@ -27882,10 +27882,10 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="B10" t="s">
-        <v>1464</v>
+        <v>1462</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1488</v>
@@ -27902,10 +27902,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="B11" t="s">
-        <v>1455</v>
+        <v>1461</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1489</v>
@@ -27922,10 +27922,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="B12" t="s">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1490</v>
@@ -27942,10 +27942,10 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="B13" t="s">
-        <v>1460</v>
+        <v>1465</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>1491</v>
@@ -27982,16 +27982,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>1493</v>
       </c>
       <c r="D15" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="E15" t="s">
         <v>1506</v>
@@ -28002,10 +28002,10 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="B16" t="s">
-        <v>1461</v>
+        <v>1455</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>1494</v>
@@ -28022,10 +28022,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="B17" t="s">
-        <v>1466</v>
+        <v>1456</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1495</v>
@@ -28042,16 +28042,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1463</v>
+        <v>107</v>
       </c>
       <c r="B18" t="s">
-        <v>1463</v>
+        <v>107</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1496</v>
+        <v>1486</v>
       </c>
       <c r="D18" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
       <c r="E18" t="s">
         <v>1506</v>
@@ -28062,16 +28062,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
       <c r="B19" t="s">
-        <v>1454</v>
+        <v>1466</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="D19" t="s">
-        <v>1505</v>
+        <v>1502</v>
       </c>
       <c r="E19" t="s">
         <v>1506</v>
@@ -28082,13 +28082,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="B20" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="D20" t="s">
         <v>1502</v>
@@ -28102,13 +28102,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="B21" t="s">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="D21" t="s">
         <v>1502</v>
@@ -28122,16 +28122,16 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>107</v>
+        <v>1459</v>
       </c>
       <c r="B22" t="s">
-        <v>107</v>
+        <v>1459</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>1487</v>
+        <v>1499</v>
       </c>
       <c r="D22" t="s">
-        <v>1504</v>
+        <v>1502</v>
       </c>
       <c r="E22" t="s">
         <v>1506</v>
@@ -28142,10 +28142,10 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="B23" t="s">
-        <v>1458</v>
+        <v>1464</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>1500</v>

--- a/dist/PerSAIDs.xlsx
+++ b/dist/PerSAIDs.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3616" uniqueCount="1505">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3621" uniqueCount="1505">
   <si>
     <t>psm</t>
   </si>
@@ -91,7 +91,7 @@
     <t>samples</t>
   </si>
   <si>
-    <t>files</t>
+    <t>experimentSets</t>
   </si>
   <si>
     <t>protocols</t>
@@ -247,7 +247,7 @@
     <t>Samples</t>
   </si>
   <si>
-    <t>Files</t>
+    <t>Experiment Sets</t>
   </si>
   <si>
     <t>Sampling Protocols</t>
@@ -388,7 +388,7 @@
     <t>psm_samples</t>
   </si>
   <si>
-    <t>psm_files</t>
+    <t>psm_experimentSets</t>
   </si>
   <si>
     <t>psm_protocols</t>
@@ -2296,9 +2296,6 @@
     <t>belongsToPatient</t>
   </si>
   <si>
-    <t>hasFile</t>
-  </si>
-  <si>
     <t>samplingDate</t>
   </si>
   <si>
@@ -2320,6 +2317,9 @@
     <t>fileURI</t>
   </si>
   <si>
+    <t>metadataURI</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -4225,7 +4225,7 @@
     <t>An individual who is the subject of personal data, persons to whom data refers, and from whom data are collected, processed, and stored.</t>
   </si>
   <si>
-    <t>Files related to sample.</t>
+    <t>Experiment sets related to sample.</t>
   </si>
   <si>
     <t>The date that a sample was collected or obtained.</t>
@@ -4447,67 +4447,67 @@
     <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
+  </si>
+  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
   </si>
   <si>
     <t>dcat</t>
   </si>
   <si>
+    <t>SCDO</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
     <t>EFO</t>
-  </si>
-  <si>
-    <t>NCIT</t>
-  </si>
-  <si>
-    <t>SCDO</t>
   </si>
   <si>
     <t>EDAM</t>
@@ -5731,7 +5731,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K716"/>
+  <dimension ref="A1:K717"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26834,7 +26834,7 @@
         <v>122</v>
       </c>
       <c r="B692" t="s">
-        <v>759</v>
+        <v>24</v>
       </c>
       <c r="C692" t="s">
         <v>783</v>
@@ -26866,7 +26866,7 @@
         <v>122</v>
       </c>
       <c r="B693" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C693" t="s">
         <v>780</v>
@@ -26898,7 +26898,7 @@
         <v>122</v>
       </c>
       <c r="B694" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C694" t="s">
         <v>776</v>
@@ -26930,7 +26930,7 @@
         <v>122</v>
       </c>
       <c r="B695" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C695" t="s">
         <v>776</v>
@@ -26959,7 +26959,7 @@
         <v>123</v>
       </c>
       <c r="B696" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C696" t="s">
         <v>776</v>
@@ -26991,7 +26991,7 @@
         <v>123</v>
       </c>
       <c r="B697" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C697" t="s">
         <v>783</v>
@@ -27026,7 +27026,7 @@
         <v>123</v>
       </c>
       <c r="B698" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C698" t="s">
         <v>782</v>
@@ -27058,7 +27058,7 @@
         <v>123</v>
       </c>
       <c r="B699" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C699" t="s">
         <v>784</v>
@@ -27087,22 +27087,22 @@
     </row>
     <row r="700" spans="1:11">
       <c r="A700" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B700" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C700" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D700" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="E700" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F700" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G700" t="b">
         <v>0</v>
@@ -27114,7 +27114,7 @@
         <v>1</v>
       </c>
       <c r="K700" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="701" spans="1:11">
@@ -27122,31 +27122,31 @@
         <v>124</v>
       </c>
       <c r="B701" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C701" t="s">
         <v>776</v>
       </c>
       <c r="D701" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="E701" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H701" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I701" t="b">
         <v>1</v>
       </c>
       <c r="K701" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="702" spans="1:11">
@@ -27154,13 +27154,13 @@
         <v>124</v>
       </c>
       <c r="B702" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C702" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D702" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="E702" t="b">
         <v>0</v>
@@ -27169,16 +27169,16 @@
         <v>1</v>
       </c>
       <c r="G702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H702" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I702" t="b">
         <v>1</v>
       </c>
       <c r="K702" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="703" spans="1:11">
@@ -27186,13 +27186,13 @@
         <v>124</v>
       </c>
       <c r="B703" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C703" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D703" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="E703" t="b">
         <v>0</v>
@@ -27210,7 +27210,7 @@
         <v>1</v>
       </c>
       <c r="K703" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="704" spans="1:11">
@@ -27218,13 +27218,13 @@
         <v>124</v>
       </c>
       <c r="B704" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C704" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D704" t="s">
-        <v>1408</v>
+        <v>1412</v>
       </c>
       <c r="E704" t="b">
         <v>0</v>
@@ -27242,39 +27242,39 @@
         <v>1</v>
       </c>
       <c r="K704" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="705" spans="1:11">
       <c r="A705" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B705" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C705" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D705" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="E705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F705" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H705" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I705" t="b">
         <v>1</v>
       </c>
       <c r="K705" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="706" spans="1:11">
@@ -27282,31 +27282,31 @@
         <v>125</v>
       </c>
       <c r="B706" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C706" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D706" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H706" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I706" t="b">
         <v>1</v>
       </c>
       <c r="K706" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="707" spans="1:11">
@@ -27314,13 +27314,13 @@
         <v>125</v>
       </c>
       <c r="B707" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C707" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D707" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E707" t="b">
         <v>0</v>
@@ -27338,7 +27338,7 @@
         <v>1</v>
       </c>
       <c r="K707" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="708" spans="1:11">
@@ -27346,13 +27346,13 @@
         <v>125</v>
       </c>
       <c r="B708" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C708" t="s">
         <v>776</v>
       </c>
       <c r="D708" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E708" t="b">
         <v>0</v>
@@ -27370,7 +27370,7 @@
         <v>1</v>
       </c>
       <c r="K708" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="709" spans="1:11">
@@ -27378,13 +27378,13 @@
         <v>125</v>
       </c>
       <c r="B709" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C709" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D709" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="E709" t="b">
         <v>0</v>
@@ -27402,21 +27402,21 @@
         <v>1</v>
       </c>
       <c r="K709" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="710" spans="1:11">
       <c r="A710" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B710" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C710" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D710" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="E710" t="b">
         <v>0</v>
@@ -27425,16 +27425,16 @@
         <v>1</v>
       </c>
       <c r="G710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H710" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I710" t="b">
         <v>1</v>
       </c>
       <c r="K710" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="711" spans="1:11">
@@ -27442,13 +27442,13 @@
         <v>126</v>
       </c>
       <c r="B711" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="C711" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="D711" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="E711" t="b">
         <v>0</v>
@@ -27457,16 +27457,16 @@
         <v>1</v>
       </c>
       <c r="G711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H711" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I711" t="b">
         <v>1</v>
       </c>
       <c r="K711" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="712" spans="1:11">
@@ -27474,13 +27474,13 @@
         <v>126</v>
       </c>
       <c r="B712" t="s">
-        <v>773</v>
+        <v>769</v>
       </c>
       <c r="C712" t="s">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="D712" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="E712" t="b">
         <v>0</v>
@@ -27498,7 +27498,7 @@
         <v>1</v>
       </c>
       <c r="K712" t="s">
-        <v>1459</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="713" spans="1:11">
@@ -27506,19 +27506,19 @@
         <v>126</v>
       </c>
       <c r="B713" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C713" t="s">
         <v>776</v>
       </c>
       <c r="D713" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="E713" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F713" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G713" t="b">
         <v>0</v>
@@ -27530,7 +27530,7 @@
         <v>1</v>
       </c>
       <c r="K713" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="714" spans="1:11">
@@ -27538,19 +27538,19 @@
         <v>126</v>
       </c>
       <c r="B714" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C714" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="D714" t="s">
-        <v>1408</v>
+        <v>1416</v>
       </c>
       <c r="E714" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F714" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G714" t="b">
         <v>0</v>
@@ -27562,27 +27562,27 @@
         <v>1</v>
       </c>
       <c r="K714" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="715" spans="1:11">
       <c r="A715" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B715" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="C715" t="s">
-        <v>776</v>
+        <v>784</v>
       </c>
       <c r="D715" t="s">
-        <v>1413</v>
+        <v>1408</v>
       </c>
       <c r="E715" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F715" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G715" t="b">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>1</v>
       </c>
       <c r="K715" t="s">
-        <v>1458</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="716" spans="1:11">
@@ -27602,30 +27602,62 @@
         <v>105</v>
       </c>
       <c r="B716" t="s">
+        <v>772</v>
+      </c>
+      <c r="C716" t="s">
+        <v>776</v>
+      </c>
+      <c r="D716" t="s">
+        <v>1413</v>
+      </c>
+      <c r="E716" t="b">
+        <v>1</v>
+      </c>
+      <c r="F716" t="b">
+        <v>0</v>
+      </c>
+      <c r="G716" t="b">
+        <v>0</v>
+      </c>
+      <c r="H716" t="b">
+        <v>0</v>
+      </c>
+      <c r="I716" t="b">
+        <v>1</v>
+      </c>
+      <c r="K716" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="717" spans="1:11">
+      <c r="A717" t="s">
+        <v>105</v>
+      </c>
+      <c r="B717" t="s">
         <v>769</v>
       </c>
-      <c r="C716" t="s">
+      <c r="C717" t="s">
         <v>782</v>
       </c>
-      <c r="D716" t="s">
+      <c r="D717" t="s">
         <v>1414</v>
       </c>
-      <c r="E716" t="b">
-        <v>0</v>
-      </c>
-      <c r="F716" t="b">
-        <v>1</v>
-      </c>
-      <c r="G716" t="b">
-        <v>1</v>
-      </c>
-      <c r="H716" t="b">
-        <v>1</v>
-      </c>
-      <c r="I716" t="b">
-        <v>1</v>
-      </c>
-      <c r="K716" t="s">
+      <c r="E717" t="b">
+        <v>0</v>
+      </c>
+      <c r="F717" t="b">
+        <v>1</v>
+      </c>
+      <c r="G717" t="b">
+        <v>1</v>
+      </c>
+      <c r="H717" t="b">
+        <v>1</v>
+      </c>
+      <c r="I717" t="b">
+        <v>1</v>
+      </c>
+      <c r="K717" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -27704,10 +27736,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1476</v>
@@ -27764,10 +27796,10 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>1479</v>
@@ -27784,10 +27816,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="B8" t="s">
-        <v>1459</v>
+        <v>1457</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1480</v>
@@ -27804,10 +27836,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="B9" t="s">
-        <v>1455</v>
+        <v>1450</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1481</v>
@@ -27844,10 +27876,10 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B11" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1483</v>
@@ -27864,10 +27896,10 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1484</v>
@@ -27884,16 +27916,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>1453</v>
+        <v>103</v>
       </c>
       <c r="B13" t="s">
-        <v>1453</v>
+        <v>103</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1485</v>
+        <v>1479</v>
       </c>
       <c r="D13" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E13" t="s">
         <v>1498</v>
@@ -27904,13 +27936,13 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="B14" t="s">
-        <v>1452</v>
+        <v>1453</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="D14" t="s">
         <v>1495</v>
@@ -27924,13 +27956,13 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="B15" t="s">
-        <v>1456</v>
+        <v>1454</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="D15" t="s">
         <v>1495</v>
@@ -27944,16 +27976,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>1456</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>1456</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1476</v>
+        <v>1487</v>
       </c>
       <c r="D16" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="E16" t="s">
         <v>1498</v>
@@ -27964,16 +27996,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="B17" t="s">
-        <v>1457</v>
+        <v>1448</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>1488</v>
       </c>
       <c r="D17" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="E17" t="s">
         <v>1498</v>
@@ -27984,10 +28016,10 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B18" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>1489</v>
@@ -28004,10 +28036,10 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="B19" t="s">
-        <v>1449</v>
+        <v>1458</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>1490</v>
@@ -28024,16 +28056,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="B20" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>1491</v>
       </c>
       <c r="D20" t="s">
-        <v>1497</v>
+        <v>1495</v>
       </c>
       <c r="E20" t="s">
         <v>1498</v>

--- a/dist/PerSAIDs.xlsx
+++ b/dist/PerSAIDs.xlsx
@@ -4447,64 +4447,64 @@
     <t>https://www.w3.org/TR/vocab-dcat-3/#Class:Catalog</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/SCDO_0002829</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42883</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C45677</t>
-  </si>
-  <si>
     <t>http://www.ebi.ac.uk/efo/EFO_0005518</t>
   </si>
   <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+  </si>
+  <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C25714</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C164024</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25162</t>
+    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
+  </si>
+  <si>
+    <t>http://edamontology.org/data_3273</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/NCIT_C70895</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C142495</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C165071</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25364</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C25365</t>
-  </si>
-  <si>
-    <t>http://edamontology.org/data_3273</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C42614</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C49100</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C171191</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C64917</t>
-  </si>
-  <si>
     <t>dcat</t>
   </si>
   <si>
+    <t>NCIT</t>
+  </si>
+  <si>
     <t>SCDO</t>
-  </si>
-  <si>
-    <t>NCIT</t>
   </si>
   <si>
     <t>EFO</t>
@@ -27736,10 +27736,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>1476</v>
@@ -27765,7 +27765,7 @@
         <v>1477</v>
       </c>
       <c r="D5" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E5" t="s">
         <v>1498</v>
@@ -27776,10 +27776,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1478</v>
@@ -27816,16 +27816,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="B8" t="s">
-        <v>1457</v>
+        <v>1451</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>1480</v>
       </c>
       <c r="D8" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E8" t="s">
         <v>1498</v>
@@ -27836,16 +27836,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="B9" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>1481</v>
       </c>
       <c r="D9" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E9" t="s">
         <v>1498</v>
@@ -27856,16 +27856,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="B10" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1482</v>
       </c>
       <c r="D10" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E10" t="s">
         <v>1498</v>
@@ -27876,16 +27876,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="B11" t="s">
-        <v>1459</v>
+        <v>1450</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>1483</v>
       </c>
       <c r="D11" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E11" t="s">
         <v>1498</v>
@@ -27896,16 +27896,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>1449</v>
+        <v>1460</v>
       </c>
       <c r="B12" t="s">
-        <v>1449</v>
+        <v>1460</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>1484</v>
       </c>
       <c r="D12" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E12" t="s">
         <v>1498</v>
@@ -27916,16 +27916,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>1457</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>1457</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>1479</v>
+        <v>1485</v>
       </c>
       <c r="D13" t="s">
-        <v>1496</v>
+        <v>1494</v>
       </c>
       <c r="E13" t="s">
         <v>1498</v>
@@ -27936,16 +27936,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="B14" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="D14" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E14" t="s">
         <v>1498</v>
@@ -27956,16 +27956,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="B15" t="s">
-        <v>1454</v>
+        <v>1448</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="D15" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
       <c r="E15" t="s">
         <v>1498</v>
@@ -27976,16 +27976,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="B16" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="D16" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E16" t="s">
         <v>1498</v>
@@ -27996,16 +27996,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="B17" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="D17" t="s">
-        <v>1497</v>
+        <v>1494</v>
       </c>
       <c r="E17" t="s">
         <v>1498</v>
@@ -28016,16 +28016,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="B18" t="s">
-        <v>1455</v>
+        <v>1453</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="D18" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E18" t="s">
         <v>1498</v>
@@ -28042,10 +28042,10 @@
         <v>1458</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="D19" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E19" t="s">
         <v>1498</v>
@@ -28056,16 +28056,16 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="B20" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
       <c r="D20" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="E20" t="s">
         <v>1498</v>
@@ -28076,16 +28076,16 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>1451</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>1451</v>
+        <v>103</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>1492</v>
+        <v>1479</v>
       </c>
       <c r="D21" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="E21" t="s">
         <v>1498</v>
